--- a/spreadsheets/new/GSE81383.0.xlsx
+++ b/spreadsheets/new/GSE81383.0.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geryl/PycharmProjects/load-project/spreadsheets/new/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA39713-A868-3647-B611-9F03F9D80EDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="27780" windowHeight="16140" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell_suspension" sheetId="1" r:id="rId1"/>
@@ -17,12 +23,12 @@
     <sheet name="Sequencing_protocol" sheetId="8" r:id="rId8"/>
     <sheet name="Specimen_from_organism" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7769" uniqueCount="2476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7770" uniqueCount="2477">
   <si>
     <t>CELL_SUSPENSION.BIOMATERIAL_CORE.BIOMATERIAL_ID.USER_FRIENDLY (Required)</t>
   </si>
@@ -7450,13 +7456,16 @@
   </si>
   <si>
     <t>melanoma metastasis</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7493,6 +7502,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -7539,7 +7556,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7571,9 +7588,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7605,6 +7640,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7780,75 +7833,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG312"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="57.7109375" customWidth="1"/>
-    <col min="11" max="11" width="85.7109375" customWidth="1"/>
-    <col min="12" max="12" width="69.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="70.7109375" customWidth="1"/>
-    <col min="16" max="16" width="57.7109375" customWidth="1"/>
-    <col min="17" max="17" width="54.7109375" customWidth="1"/>
-    <col min="18" max="18" width="68.7109375" customWidth="1"/>
-    <col min="19" max="19" width="62.7109375" customWidth="1"/>
-    <col min="20" max="20" width="81.7109375" customWidth="1"/>
-    <col min="21" max="21" width="61.7109375" customWidth="1"/>
-    <col min="22" max="22" width="195.7109375" customWidth="1"/>
-    <col min="23" max="23" width="62.7109375" customWidth="1"/>
-    <col min="24" max="24" width="150.7109375" customWidth="1"/>
-    <col min="25" max="25" width="78.7109375" customWidth="1"/>
-    <col min="26" max="26" width="64.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="163.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="52.7109375" customWidth="1"/>
-    <col min="33" max="33" width="63.7109375" customWidth="1"/>
-    <col min="34" max="34" width="59.7109375" customWidth="1"/>
-    <col min="35" max="35" width="108.7109375" customWidth="1"/>
-    <col min="36" max="36" width="108.7109375" customWidth="1"/>
-    <col min="37" max="37" width="69.7109375" customWidth="1"/>
-    <col min="38" max="38" width="58.7109375" customWidth="1"/>
-    <col min="39" max="39" width="141.7109375" customWidth="1"/>
-    <col min="40" max="40" width="117.7109375" customWidth="1"/>
-    <col min="41" max="41" width="80.7109375" customWidth="1"/>
-    <col min="42" max="42" width="73.7109375" customWidth="1"/>
-    <col min="43" max="43" width="71.7109375" customWidth="1"/>
-    <col min="44" max="44" width="32.7109375" customWidth="1"/>
-    <col min="45" max="45" width="67.7109375" customWidth="1"/>
-    <col min="46" max="46" width="41.7109375" customWidth="1"/>
-    <col min="47" max="47" width="84.7109375" customWidth="1"/>
-    <col min="48" max="48" width="104.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="88.7109375" customWidth="1"/>
-    <col min="52" max="52" width="69.7109375" customWidth="1"/>
-    <col min="53" max="53" width="58.7109375" customWidth="1"/>
-    <col min="54" max="54" width="141.7109375" customWidth="1"/>
-    <col min="55" max="55" width="67.7109375" customWidth="1"/>
-    <col min="56" max="56" width="58.7109375" customWidth="1"/>
-    <col min="57" max="57" width="141.7109375" customWidth="1"/>
-    <col min="58" max="58" width="79.7109375" customWidth="1"/>
-    <col min="59" max="59" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="73.6640625" customWidth="1"/>
+    <col min="2" max="3" width="71.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="57.6640625" customWidth="1"/>
+    <col min="11" max="11" width="85.6640625" customWidth="1"/>
+    <col min="12" max="12" width="69.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="70.6640625" customWidth="1"/>
+    <col min="16" max="16" width="57.6640625" customWidth="1"/>
+    <col min="17" max="17" width="54.6640625" customWidth="1"/>
+    <col min="18" max="18" width="68.6640625" customWidth="1"/>
+    <col min="19" max="19" width="62.6640625" customWidth="1"/>
+    <col min="20" max="20" width="81.6640625" customWidth="1"/>
+    <col min="21" max="21" width="61.6640625" customWidth="1"/>
+    <col min="22" max="22" width="195.6640625" customWidth="1"/>
+    <col min="23" max="23" width="62.6640625" customWidth="1"/>
+    <col min="24" max="24" width="150.6640625" customWidth="1"/>
+    <col min="25" max="25" width="78.6640625" customWidth="1"/>
+    <col min="26" max="26" width="64.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="163.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="52.6640625" customWidth="1"/>
+    <col min="33" max="33" width="63.6640625" customWidth="1"/>
+    <col min="34" max="34" width="59.6640625" customWidth="1"/>
+    <col min="35" max="36" width="108.6640625" customWidth="1"/>
+    <col min="37" max="37" width="69.6640625" customWidth="1"/>
+    <col min="38" max="38" width="58.6640625" customWidth="1"/>
+    <col min="39" max="39" width="141.6640625" customWidth="1"/>
+    <col min="40" max="40" width="117.6640625" customWidth="1"/>
+    <col min="41" max="41" width="80.6640625" customWidth="1"/>
+    <col min="42" max="42" width="73.6640625" customWidth="1"/>
+    <col min="43" max="43" width="71.6640625" customWidth="1"/>
+    <col min="44" max="44" width="32.6640625" customWidth="1"/>
+    <col min="45" max="45" width="67.6640625" customWidth="1"/>
+    <col min="46" max="46" width="41.6640625" customWidth="1"/>
+    <col min="47" max="47" width="84.6640625" customWidth="1"/>
+    <col min="48" max="50" width="104.6640625" customWidth="1"/>
+    <col min="51" max="51" width="88.6640625" customWidth="1"/>
+    <col min="52" max="52" width="69.6640625" customWidth="1"/>
+    <col min="53" max="53" width="58.6640625" customWidth="1"/>
+    <col min="54" max="54" width="141.6640625" customWidth="1"/>
+    <col min="55" max="55" width="67.6640625" customWidth="1"/>
+    <col min="56" max="56" width="58.6640625" customWidth="1"/>
+    <col min="57" max="57" width="141.6640625" customWidth="1"/>
+    <col min="58" max="58" width="79.6640625" customWidth="1"/>
+    <col min="59" max="59" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8027,7 +8076,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -8206,7 +8255,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -8364,7 +8413,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -8543,12 +8592,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>208</v>
       </c>
@@ -8571,7 +8620,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>214</v>
       </c>
@@ -8594,7 +8643,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -8617,7 +8666,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>218</v>
       </c>
@@ -8640,7 +8689,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>220</v>
       </c>
@@ -8663,7 +8712,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>222</v>
       </c>
@@ -8686,7 +8735,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>224</v>
       </c>
@@ -8709,7 +8758,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>226</v>
       </c>
@@ -8732,7 +8781,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>228</v>
       </c>
@@ -8755,7 +8804,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>230</v>
       </c>
@@ -8778,7 +8827,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>232</v>
       </c>
@@ -8801,7 +8850,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>234</v>
       </c>
@@ -8824,7 +8873,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>236</v>
       </c>
@@ -8847,7 +8896,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>238</v>
       </c>
@@ -8870,7 +8919,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>240</v>
       </c>
@@ -8893,7 +8942,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>242</v>
       </c>
@@ -8916,7 +8965,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>244</v>
       </c>
@@ -8939,7 +8988,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>246</v>
       </c>
@@ -8962,7 +9011,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>248</v>
       </c>
@@ -8985,7 +9034,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>250</v>
       </c>
@@ -9008,7 +9057,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>252</v>
       </c>
@@ -9031,7 +9080,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>254</v>
       </c>
@@ -9054,7 +9103,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>256</v>
       </c>
@@ -9077,7 +9126,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>258</v>
       </c>
@@ -9100,7 +9149,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>260</v>
       </c>
@@ -9123,7 +9172,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>262</v>
       </c>
@@ -9146,7 +9195,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>264</v>
       </c>
@@ -9169,7 +9218,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="33" spans="1:41">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>266</v>
       </c>
@@ -9192,7 +9241,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="34" spans="1:41">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>268</v>
       </c>
@@ -9215,7 +9264,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="35" spans="1:41">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>270</v>
       </c>
@@ -9238,7 +9287,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="36" spans="1:41">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>272</v>
       </c>
@@ -9261,7 +9310,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="37" spans="1:41">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>274</v>
       </c>
@@ -9284,7 +9333,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="38" spans="1:41">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>276</v>
       </c>
@@ -9307,7 +9356,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="39" spans="1:41">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>278</v>
       </c>
@@ -9330,7 +9379,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="40" spans="1:41">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>280</v>
       </c>
@@ -9353,7 +9402,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="41" spans="1:41">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>282</v>
       </c>
@@ -9376,7 +9425,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="42" spans="1:41">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>284</v>
       </c>
@@ -9399,7 +9448,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="43" spans="1:41">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>286</v>
       </c>
@@ -9422,7 +9471,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="44" spans="1:41">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>288</v>
       </c>
@@ -9445,7 +9494,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="45" spans="1:41">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>290</v>
       </c>
@@ -9468,7 +9517,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="46" spans="1:41">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>292</v>
       </c>
@@ -9491,7 +9540,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="47" spans="1:41">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>294</v>
       </c>
@@ -9514,7 +9563,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="48" spans="1:41">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>296</v>
       </c>
@@ -9537,7 +9586,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="49" spans="1:41">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>298</v>
       </c>
@@ -9560,7 +9609,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="50" spans="1:41">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>300</v>
       </c>
@@ -9583,7 +9632,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="51" spans="1:41">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>302</v>
       </c>
@@ -9606,7 +9655,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="52" spans="1:41">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>304</v>
       </c>
@@ -9629,7 +9678,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="53" spans="1:41">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>306</v>
       </c>
@@ -9652,7 +9701,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="54" spans="1:41">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>308</v>
       </c>
@@ -9675,7 +9724,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:41">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>310</v>
       </c>
@@ -9698,7 +9747,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="56" spans="1:41">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>312</v>
       </c>
@@ -9721,7 +9770,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="57" spans="1:41">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>314</v>
       </c>
@@ -9744,7 +9793,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="58" spans="1:41">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>316</v>
       </c>
@@ -9767,7 +9816,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="59" spans="1:41">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>318</v>
       </c>
@@ -9790,7 +9839,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="60" spans="1:41">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>320</v>
       </c>
@@ -9813,7 +9862,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="61" spans="1:41">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>322</v>
       </c>
@@ -9836,7 +9885,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="62" spans="1:41">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>324</v>
       </c>
@@ -9859,7 +9908,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="63" spans="1:41">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>326</v>
       </c>
@@ -9882,7 +9931,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="64" spans="1:41">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>328</v>
       </c>
@@ -9905,7 +9954,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="65" spans="1:41">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>330</v>
       </c>
@@ -9928,7 +9977,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="66" spans="1:41">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>332</v>
       </c>
@@ -9951,7 +10000,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="67" spans="1:41">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>334</v>
       </c>
@@ -9974,7 +10023,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="68" spans="1:41">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>336</v>
       </c>
@@ -9997,7 +10046,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="69" spans="1:41">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>338</v>
       </c>
@@ -10020,7 +10069,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="70" spans="1:41">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>340</v>
       </c>
@@ -10043,7 +10092,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="71" spans="1:41">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>342</v>
       </c>
@@ -10066,7 +10115,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="72" spans="1:41">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>344</v>
       </c>
@@ -10089,7 +10138,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="73" spans="1:41">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>346</v>
       </c>
@@ -10112,7 +10161,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="74" spans="1:41">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>348</v>
       </c>
@@ -10135,7 +10184,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="75" spans="1:41">
+    <row r="75" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>350</v>
       </c>
@@ -10158,7 +10207,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="76" spans="1:41">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>352</v>
       </c>
@@ -10181,7 +10230,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="77" spans="1:41">
+    <row r="77" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>354</v>
       </c>
@@ -10204,7 +10253,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="78" spans="1:41">
+    <row r="78" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>356</v>
       </c>
@@ -10227,7 +10276,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="79" spans="1:41">
+    <row r="79" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>358</v>
       </c>
@@ -10250,7 +10299,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="80" spans="1:41">
+    <row r="80" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>360</v>
       </c>
@@ -10273,7 +10322,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="81" spans="1:41">
+    <row r="81" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>362</v>
       </c>
@@ -10296,7 +10345,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="82" spans="1:41">
+    <row r="82" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>364</v>
       </c>
@@ -10319,7 +10368,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="83" spans="1:41">
+    <row r="83" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>366</v>
       </c>
@@ -10342,7 +10391,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="84" spans="1:41">
+    <row r="84" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>368</v>
       </c>
@@ -10365,7 +10414,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="85" spans="1:41">
+    <row r="85" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>370</v>
       </c>
@@ -10388,7 +10437,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="86" spans="1:41">
+    <row r="86" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>372</v>
       </c>
@@ -10411,7 +10460,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="87" spans="1:41">
+    <row r="87" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>374</v>
       </c>
@@ -10434,7 +10483,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="88" spans="1:41">
+    <row r="88" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>376</v>
       </c>
@@ -10457,7 +10506,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="89" spans="1:41">
+    <row r="89" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>378</v>
       </c>
@@ -10480,7 +10529,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="90" spans="1:41">
+    <row r="90" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>380</v>
       </c>
@@ -10503,7 +10552,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="91" spans="1:41">
+    <row r="91" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>382</v>
       </c>
@@ -10526,7 +10575,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="92" spans="1:41">
+    <row r="92" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>384</v>
       </c>
@@ -10549,7 +10598,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="93" spans="1:41">
+    <row r="93" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>386</v>
       </c>
@@ -10572,7 +10621,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="94" spans="1:41">
+    <row r="94" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>388</v>
       </c>
@@ -10595,7 +10644,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="95" spans="1:41">
+    <row r="95" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>390</v>
       </c>
@@ -10618,7 +10667,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="96" spans="1:41">
+    <row r="96" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>392</v>
       </c>
@@ -10641,7 +10690,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="97" spans="1:41">
+    <row r="97" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>394</v>
       </c>
@@ -10664,7 +10713,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="98" spans="1:41">
+    <row r="98" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>396</v>
       </c>
@@ -10687,7 +10736,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="99" spans="1:41">
+    <row r="99" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>400</v>
       </c>
@@ -10710,7 +10759,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="100" spans="1:41">
+    <row r="100" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>403</v>
       </c>
@@ -10733,7 +10782,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="101" spans="1:41">
+    <row r="101" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>406</v>
       </c>
@@ -10756,7 +10805,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="102" spans="1:41">
+    <row r="102" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>409</v>
       </c>
@@ -10779,7 +10828,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="103" spans="1:41">
+    <row r="103" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>412</v>
       </c>
@@ -10802,7 +10851,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="104" spans="1:41">
+    <row r="104" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>415</v>
       </c>
@@ -10825,7 +10874,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="105" spans="1:41">
+    <row r="105" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>418</v>
       </c>
@@ -10848,7 +10897,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="106" spans="1:41">
+    <row r="106" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>421</v>
       </c>
@@ -10871,7 +10920,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="107" spans="1:41">
+    <row r="107" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>424</v>
       </c>
@@ -10894,7 +10943,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="108" spans="1:41">
+    <row r="108" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>427</v>
       </c>
@@ -10917,7 +10966,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="109" spans="1:41">
+    <row r="109" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>430</v>
       </c>
@@ -10940,7 +10989,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="110" spans="1:41">
+    <row r="110" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>433</v>
       </c>
@@ -10963,7 +11012,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="111" spans="1:41">
+    <row r="111" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>436</v>
       </c>
@@ -10986,7 +11035,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="112" spans="1:41">
+    <row r="112" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>439</v>
       </c>
@@ -11009,7 +11058,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="113" spans="1:41">
+    <row r="113" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>442</v>
       </c>
@@ -11032,7 +11081,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="114" spans="1:41">
+    <row r="114" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>445</v>
       </c>
@@ -11055,7 +11104,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="115" spans="1:41">
+    <row r="115" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>448</v>
       </c>
@@ -11078,7 +11127,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="116" spans="1:41">
+    <row r="116" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>451</v>
       </c>
@@ -11101,7 +11150,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="117" spans="1:41">
+    <row r="117" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>454</v>
       </c>
@@ -11124,7 +11173,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="118" spans="1:41">
+    <row r="118" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>457</v>
       </c>
@@ -11147,7 +11196,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="119" spans="1:41">
+    <row r="119" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>460</v>
       </c>
@@ -11170,7 +11219,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="120" spans="1:41">
+    <row r="120" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>463</v>
       </c>
@@ -11193,7 +11242,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="121" spans="1:41">
+    <row r="121" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>466</v>
       </c>
@@ -11216,7 +11265,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="122" spans="1:41">
+    <row r="122" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>469</v>
       </c>
@@ -11239,7 +11288,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="123" spans="1:41">
+    <row r="123" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>472</v>
       </c>
@@ -11262,7 +11311,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="124" spans="1:41">
+    <row r="124" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>475</v>
       </c>
@@ -11285,7 +11334,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="125" spans="1:41">
+    <row r="125" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>478</v>
       </c>
@@ -11308,7 +11357,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="126" spans="1:41">
+    <row r="126" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>481</v>
       </c>
@@ -11331,7 +11380,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="127" spans="1:41">
+    <row r="127" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>484</v>
       </c>
@@ -11354,7 +11403,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="128" spans="1:41">
+    <row r="128" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>487</v>
       </c>
@@ -11377,7 +11426,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="129" spans="1:41">
+    <row r="129" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>490</v>
       </c>
@@ -11400,7 +11449,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="130" spans="1:41">
+    <row r="130" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>493</v>
       </c>
@@ -11423,7 +11472,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="131" spans="1:41">
+    <row r="131" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>496</v>
       </c>
@@ -11446,7 +11495,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="132" spans="1:41">
+    <row r="132" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>499</v>
       </c>
@@ -11469,7 +11518,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="133" spans="1:41">
+    <row r="133" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>502</v>
       </c>
@@ -11492,7 +11541,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="134" spans="1:41">
+    <row r="134" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>505</v>
       </c>
@@ -11515,7 +11564,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="135" spans="1:41">
+    <row r="135" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>508</v>
       </c>
@@ -11538,7 +11587,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="136" spans="1:41">
+    <row r="136" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>511</v>
       </c>
@@ -11561,7 +11610,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="137" spans="1:41">
+    <row r="137" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>514</v>
       </c>
@@ -11584,7 +11633,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="138" spans="1:41">
+    <row r="138" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>517</v>
       </c>
@@ -11607,7 +11656,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="139" spans="1:41">
+    <row r="139" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>520</v>
       </c>
@@ -11630,7 +11679,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="140" spans="1:41">
+    <row r="140" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>523</v>
       </c>
@@ -11653,7 +11702,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="141" spans="1:41">
+    <row r="141" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>526</v>
       </c>
@@ -11676,7 +11725,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="142" spans="1:41">
+    <row r="142" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>529</v>
       </c>
@@ -11699,7 +11748,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="143" spans="1:41">
+    <row r="143" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>532</v>
       </c>
@@ -11722,7 +11771,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="144" spans="1:41">
+    <row r="144" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>535</v>
       </c>
@@ -11745,7 +11794,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="145" spans="1:41">
+    <row r="145" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>538</v>
       </c>
@@ -11768,7 +11817,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="146" spans="1:41">
+    <row r="146" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>541</v>
       </c>
@@ -11791,7 +11840,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="147" spans="1:41">
+    <row r="147" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>544</v>
       </c>
@@ -11814,7 +11863,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="148" spans="1:41">
+    <row r="148" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>547</v>
       </c>
@@ -11837,7 +11886,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="149" spans="1:41">
+    <row r="149" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>550</v>
       </c>
@@ -11860,7 +11909,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="150" spans="1:41">
+    <row r="150" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>553</v>
       </c>
@@ -11883,7 +11932,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="151" spans="1:41">
+    <row r="151" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>556</v>
       </c>
@@ -11906,7 +11955,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="152" spans="1:41">
+    <row r="152" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>559</v>
       </c>
@@ -11929,7 +11978,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="153" spans="1:41">
+    <row r="153" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>562</v>
       </c>
@@ -11952,7 +12001,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="154" spans="1:41">
+    <row r="154" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>565</v>
       </c>
@@ -11975,7 +12024,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="155" spans="1:41">
+    <row r="155" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>568</v>
       </c>
@@ -11998,7 +12047,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="156" spans="1:41">
+    <row r="156" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>571</v>
       </c>
@@ -12021,7 +12070,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="157" spans="1:41">
+    <row r="157" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>574</v>
       </c>
@@ -12044,7 +12093,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="158" spans="1:41">
+    <row r="158" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>577</v>
       </c>
@@ -12067,7 +12116,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="159" spans="1:41">
+    <row r="159" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>580</v>
       </c>
@@ -12090,7 +12139,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="160" spans="1:41">
+    <row r="160" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>583</v>
       </c>
@@ -12113,7 +12162,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="161" spans="1:41">
+    <row r="161" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>586</v>
       </c>
@@ -12136,7 +12185,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="162" spans="1:41">
+    <row r="162" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>589</v>
       </c>
@@ -12159,7 +12208,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="163" spans="1:41">
+    <row r="163" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>592</v>
       </c>
@@ -12182,7 +12231,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="164" spans="1:41">
+    <row r="164" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>595</v>
       </c>
@@ -12205,7 +12254,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="165" spans="1:41">
+    <row r="165" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>598</v>
       </c>
@@ -12228,7 +12277,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="166" spans="1:41">
+    <row r="166" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>601</v>
       </c>
@@ -12251,7 +12300,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="167" spans="1:41">
+    <row r="167" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>604</v>
       </c>
@@ -12274,7 +12323,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="168" spans="1:41">
+    <row r="168" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>607</v>
       </c>
@@ -12297,7 +12346,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="169" spans="1:41">
+    <row r="169" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>610</v>
       </c>
@@ -12320,7 +12369,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="170" spans="1:41">
+    <row r="170" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>613</v>
       </c>
@@ -12343,7 +12392,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="171" spans="1:41">
+    <row r="171" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>616</v>
       </c>
@@ -12366,7 +12415,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="172" spans="1:41">
+    <row r="172" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>619</v>
       </c>
@@ -12389,7 +12438,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="173" spans="1:41">
+    <row r="173" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>622</v>
       </c>
@@ -12412,7 +12461,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="174" spans="1:41">
+    <row r="174" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>625</v>
       </c>
@@ -12435,7 +12484,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="175" spans="1:41">
+    <row r="175" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>628</v>
       </c>
@@ -12458,7 +12507,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="176" spans="1:41">
+    <row r="176" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>631</v>
       </c>
@@ -12481,7 +12530,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="177" spans="1:41">
+    <row r="177" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>634</v>
       </c>
@@ -12504,7 +12553,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="178" spans="1:41">
+    <row r="178" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>637</v>
       </c>
@@ -12527,7 +12576,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="179" spans="1:41">
+    <row r="179" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>640</v>
       </c>
@@ -12550,7 +12599,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="180" spans="1:41">
+    <row r="180" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>643</v>
       </c>
@@ -12573,7 +12622,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="181" spans="1:41">
+    <row r="181" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>646</v>
       </c>
@@ -12596,7 +12645,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="182" spans="1:41">
+    <row r="182" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>649</v>
       </c>
@@ -12619,7 +12668,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="183" spans="1:41">
+    <row r="183" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>652</v>
       </c>
@@ -12642,7 +12691,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="184" spans="1:41">
+    <row r="184" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>654</v>
       </c>
@@ -12665,7 +12714,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="185" spans="1:41">
+    <row r="185" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>656</v>
       </c>
@@ -12688,7 +12737,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="186" spans="1:41">
+    <row r="186" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>658</v>
       </c>
@@ -12711,7 +12760,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="187" spans="1:41">
+    <row r="187" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>660</v>
       </c>
@@ -12734,7 +12783,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="188" spans="1:41">
+    <row r="188" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>662</v>
       </c>
@@ -12757,7 +12806,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="189" spans="1:41">
+    <row r="189" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>664</v>
       </c>
@@ -12780,7 +12829,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="190" spans="1:41">
+    <row r="190" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>666</v>
       </c>
@@ -12803,7 +12852,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="191" spans="1:41">
+    <row r="191" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>668</v>
       </c>
@@ -12826,7 +12875,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="192" spans="1:41">
+    <row r="192" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>670</v>
       </c>
@@ -12849,7 +12898,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="193" spans="1:41">
+    <row r="193" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>672</v>
       </c>
@@ -12872,7 +12921,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="194" spans="1:41">
+    <row r="194" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>674</v>
       </c>
@@ -12895,7 +12944,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="195" spans="1:41">
+    <row r="195" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>676</v>
       </c>
@@ -12918,7 +12967,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="196" spans="1:41">
+    <row r="196" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>678</v>
       </c>
@@ -12941,7 +12990,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="197" spans="1:41">
+    <row r="197" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>680</v>
       </c>
@@ -12964,7 +13013,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="198" spans="1:41">
+    <row r="198" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>682</v>
       </c>
@@ -12987,7 +13036,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="199" spans="1:41">
+    <row r="199" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>684</v>
       </c>
@@ -13010,7 +13059,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="200" spans="1:41">
+    <row r="200" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>686</v>
       </c>
@@ -13033,7 +13082,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="201" spans="1:41">
+    <row r="201" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>688</v>
       </c>
@@ -13056,7 +13105,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="202" spans="1:41">
+    <row r="202" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>690</v>
       </c>
@@ -13079,7 +13128,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="203" spans="1:41">
+    <row r="203" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>692</v>
       </c>
@@ -13102,7 +13151,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="204" spans="1:41">
+    <row r="204" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>694</v>
       </c>
@@ -13125,7 +13174,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="205" spans="1:41">
+    <row r="205" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>696</v>
       </c>
@@ -13148,7 +13197,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="206" spans="1:41">
+    <row r="206" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>698</v>
       </c>
@@ -13171,7 +13220,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="207" spans="1:41">
+    <row r="207" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>700</v>
       </c>
@@ -13194,7 +13243,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="208" spans="1:41">
+    <row r="208" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>702</v>
       </c>
@@ -13217,7 +13266,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="209" spans="1:41">
+    <row r="209" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>704</v>
       </c>
@@ -13240,7 +13289,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="210" spans="1:41">
+    <row r="210" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>706</v>
       </c>
@@ -13263,7 +13312,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="211" spans="1:41">
+    <row r="211" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>708</v>
       </c>
@@ -13286,7 +13335,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="212" spans="1:41">
+    <row r="212" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>710</v>
       </c>
@@ -13309,7 +13358,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="213" spans="1:41">
+    <row r="213" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>712</v>
       </c>
@@ -13332,7 +13381,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="214" spans="1:41">
+    <row r="214" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>714</v>
       </c>
@@ -13355,7 +13404,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="215" spans="1:41">
+    <row r="215" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>716</v>
       </c>
@@ -13378,7 +13427,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="216" spans="1:41">
+    <row r="216" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>718</v>
       </c>
@@ -13401,7 +13450,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="217" spans="1:41">
+    <row r="217" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>720</v>
       </c>
@@ -13424,7 +13473,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="218" spans="1:41">
+    <row r="218" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>722</v>
       </c>
@@ -13447,7 +13496,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="219" spans="1:41">
+    <row r="219" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>724</v>
       </c>
@@ -13470,7 +13519,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="220" spans="1:41">
+    <row r="220" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>726</v>
       </c>
@@ -13493,7 +13542,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="221" spans="1:41">
+    <row r="221" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>728</v>
       </c>
@@ -13516,7 +13565,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="222" spans="1:41">
+    <row r="222" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>730</v>
       </c>
@@ -13539,7 +13588,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="223" spans="1:41">
+    <row r="223" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>732</v>
       </c>
@@ -13562,7 +13611,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="224" spans="1:41">
+    <row r="224" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>734</v>
       </c>
@@ -13585,7 +13634,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="225" spans="1:41">
+    <row r="225" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>736</v>
       </c>
@@ -13608,7 +13657,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="226" spans="1:41">
+    <row r="226" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>738</v>
       </c>
@@ -13631,7 +13680,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="227" spans="1:41">
+    <row r="227" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>740</v>
       </c>
@@ -13654,7 +13703,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="228" spans="1:41">
+    <row r="228" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>742</v>
       </c>
@@ -13677,7 +13726,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="229" spans="1:41">
+    <row r="229" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>744</v>
       </c>
@@ -13700,7 +13749,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="230" spans="1:41">
+    <row r="230" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>746</v>
       </c>
@@ -13723,7 +13772,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="231" spans="1:41">
+    <row r="231" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>748</v>
       </c>
@@ -13746,7 +13795,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="232" spans="1:41">
+    <row r="232" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>750</v>
       </c>
@@ -13769,7 +13818,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="233" spans="1:41">
+    <row r="233" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>752</v>
       </c>
@@ -13792,7 +13841,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="234" spans="1:41">
+    <row r="234" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>754</v>
       </c>
@@ -13815,7 +13864,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="235" spans="1:41">
+    <row r="235" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>756</v>
       </c>
@@ -13838,7 +13887,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="236" spans="1:41">
+    <row r="236" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>758</v>
       </c>
@@ -13861,7 +13910,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="237" spans="1:41">
+    <row r="237" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>761</v>
       </c>
@@ -13884,7 +13933,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="238" spans="1:41">
+    <row r="238" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>763</v>
       </c>
@@ -13907,7 +13956,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="239" spans="1:41">
+    <row r="239" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>765</v>
       </c>
@@ -13930,7 +13979,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="240" spans="1:41">
+    <row r="240" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>767</v>
       </c>
@@ -13953,7 +14002,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="241" spans="1:41">
+    <row r="241" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>769</v>
       </c>
@@ -13976,7 +14025,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="242" spans="1:41">
+    <row r="242" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>771</v>
       </c>
@@ -13999,7 +14048,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="243" spans="1:41">
+    <row r="243" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>773</v>
       </c>
@@ -14022,7 +14071,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="244" spans="1:41">
+    <row r="244" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>775</v>
       </c>
@@ -14045,7 +14094,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="245" spans="1:41">
+    <row r="245" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>777</v>
       </c>
@@ -14068,7 +14117,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="246" spans="1:41">
+    <row r="246" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>779</v>
       </c>
@@ -14091,7 +14140,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="247" spans="1:41">
+    <row r="247" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>781</v>
       </c>
@@ -14114,7 +14163,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="248" spans="1:41">
+    <row r="248" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>783</v>
       </c>
@@ -14137,7 +14186,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="249" spans="1:41">
+    <row r="249" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>785</v>
       </c>
@@ -14160,7 +14209,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="250" spans="1:41">
+    <row r="250" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>787</v>
       </c>
@@ -14183,7 +14232,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="251" spans="1:41">
+    <row r="251" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>789</v>
       </c>
@@ -14206,7 +14255,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="252" spans="1:41">
+    <row r="252" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>791</v>
       </c>
@@ -14229,7 +14278,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="253" spans="1:41">
+    <row r="253" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>793</v>
       </c>
@@ -14252,7 +14301,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="254" spans="1:41">
+    <row r="254" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>795</v>
       </c>
@@ -14275,7 +14324,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="255" spans="1:41">
+    <row r="255" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>797</v>
       </c>
@@ -14298,7 +14347,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="256" spans="1:41">
+    <row r="256" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>799</v>
       </c>
@@ -14321,7 +14370,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="257" spans="1:41">
+    <row r="257" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>801</v>
       </c>
@@ -14344,7 +14393,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="258" spans="1:41">
+    <row r="258" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>803</v>
       </c>
@@ -14367,7 +14416,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="259" spans="1:41">
+    <row r="259" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>805</v>
       </c>
@@ -14390,7 +14439,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="260" spans="1:41">
+    <row r="260" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>807</v>
       </c>
@@ -14413,7 +14462,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="261" spans="1:41">
+    <row r="261" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>809</v>
       </c>
@@ -14436,7 +14485,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="262" spans="1:41">
+    <row r="262" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>811</v>
       </c>
@@ -14459,7 +14508,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="263" spans="1:41">
+    <row r="263" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>813</v>
       </c>
@@ -14482,7 +14531,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="264" spans="1:41">
+    <row r="264" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>815</v>
       </c>
@@ -14505,7 +14554,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="265" spans="1:41">
+    <row r="265" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>817</v>
       </c>
@@ -14528,7 +14577,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="266" spans="1:41">
+    <row r="266" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>819</v>
       </c>
@@ -14551,7 +14600,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="267" spans="1:41">
+    <row r="267" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>821</v>
       </c>
@@ -14574,7 +14623,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="268" spans="1:41">
+    <row r="268" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>823</v>
       </c>
@@ -14597,7 +14646,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="269" spans="1:41">
+    <row r="269" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>825</v>
       </c>
@@ -14620,7 +14669,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="270" spans="1:41">
+    <row r="270" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>827</v>
       </c>
@@ -14643,7 +14692,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="271" spans="1:41">
+    <row r="271" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>829</v>
       </c>
@@ -14666,7 +14715,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="272" spans="1:41">
+    <row r="272" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>831</v>
       </c>
@@ -14689,7 +14738,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="273" spans="1:41">
+    <row r="273" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>833</v>
       </c>
@@ -14712,7 +14761,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="274" spans="1:41">
+    <row r="274" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>835</v>
       </c>
@@ -14735,7 +14784,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="275" spans="1:41">
+    <row r="275" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>837</v>
       </c>
@@ -14758,7 +14807,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="276" spans="1:41">
+    <row r="276" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>839</v>
       </c>
@@ -14781,7 +14830,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="277" spans="1:41">
+    <row r="277" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>841</v>
       </c>
@@ -14804,7 +14853,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="278" spans="1:41">
+    <row r="278" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>843</v>
       </c>
@@ -14827,7 +14876,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="279" spans="1:41">
+    <row r="279" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>845</v>
       </c>
@@ -14850,7 +14899,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="280" spans="1:41">
+    <row r="280" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>847</v>
       </c>
@@ -14873,7 +14922,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="281" spans="1:41">
+    <row r="281" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>849</v>
       </c>
@@ -14896,7 +14945,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="282" spans="1:41">
+    <row r="282" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>851</v>
       </c>
@@ -14919,7 +14968,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="283" spans="1:41">
+    <row r="283" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>853</v>
       </c>
@@ -14942,7 +14991,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="284" spans="1:41">
+    <row r="284" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>855</v>
       </c>
@@ -14965,7 +15014,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="285" spans="1:41">
+    <row r="285" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>857</v>
       </c>
@@ -14988,7 +15037,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="286" spans="1:41">
+    <row r="286" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>859</v>
       </c>
@@ -15011,7 +15060,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="287" spans="1:41">
+    <row r="287" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>861</v>
       </c>
@@ -15034,7 +15083,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="288" spans="1:41">
+    <row r="288" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>863</v>
       </c>
@@ -15057,7 +15106,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="289" spans="1:41">
+    <row r="289" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>865</v>
       </c>
@@ -15080,7 +15129,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="290" spans="1:41">
+    <row r="290" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>867</v>
       </c>
@@ -15103,7 +15152,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="291" spans="1:41">
+    <row r="291" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>869</v>
       </c>
@@ -15126,7 +15175,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="292" spans="1:41">
+    <row r="292" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>871</v>
       </c>
@@ -15149,7 +15198,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="293" spans="1:41">
+    <row r="293" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>873</v>
       </c>
@@ -15172,7 +15221,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="294" spans="1:41">
+    <row r="294" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>875</v>
       </c>
@@ -15195,7 +15244,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="295" spans="1:41">
+    <row r="295" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>877</v>
       </c>
@@ -15218,7 +15267,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="296" spans="1:41">
+    <row r="296" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>879</v>
       </c>
@@ -15241,7 +15290,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="297" spans="1:41">
+    <row r="297" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>881</v>
       </c>
@@ -15264,7 +15313,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="298" spans="1:41">
+    <row r="298" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>883</v>
       </c>
@@ -15287,7 +15336,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="299" spans="1:41">
+    <row r="299" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>885</v>
       </c>
@@ -15310,7 +15359,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="300" spans="1:41">
+    <row r="300" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>887</v>
       </c>
@@ -15333,7 +15382,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="301" spans="1:41">
+    <row r="301" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>889</v>
       </c>
@@ -15356,7 +15405,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="302" spans="1:41">
+    <row r="302" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>891</v>
       </c>
@@ -15379,7 +15428,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="303" spans="1:41">
+    <row r="303" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>893</v>
       </c>
@@ -15402,7 +15451,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="304" spans="1:41">
+    <row r="304" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>895</v>
       </c>
@@ -15425,7 +15474,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="305" spans="1:41">
+    <row r="305" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>897</v>
       </c>
@@ -15448,7 +15497,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="306" spans="1:41">
+    <row r="306" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>899</v>
       </c>
@@ -15471,7 +15520,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="307" spans="1:41">
+    <row r="307" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>901</v>
       </c>
@@ -15494,7 +15543,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="308" spans="1:41">
+    <row r="308" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>903</v>
       </c>
@@ -15517,7 +15566,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="309" spans="1:41">
+    <row r="309" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>905</v>
       </c>
@@ -15540,7 +15589,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="310" spans="1:41">
+    <row r="310" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>907</v>
       </c>
@@ -15563,7 +15612,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="311" spans="1:41">
+    <row r="311" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>909</v>
       </c>
@@ -15586,7 +15635,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="312" spans="1:41">
+    <row r="312" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>911</v>
       </c>
@@ -15615,93 +15664,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BY8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="70.7109375" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="46.7109375" customWidth="1"/>
-    <col min="11" max="11" width="103.7109375" customWidth="1"/>
-    <col min="12" max="12" width="58.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="42.7109375" customWidth="1"/>
-    <col min="15" max="15" width="58.7109375" customWidth="1"/>
-    <col min="16" max="16" width="141.7109375" customWidth="1"/>
-    <col min="17" max="17" width="62.7109375" customWidth="1"/>
-    <col min="18" max="18" width="58.7109375" customWidth="1"/>
-    <col min="19" max="19" width="141.7109375" customWidth="1"/>
-    <col min="20" max="20" width="65.7109375" customWidth="1"/>
-    <col min="21" max="21" width="221.7109375" customWidth="1"/>
-    <col min="22" max="22" width="106.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="77.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="82.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="134.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="52.7109375" customWidth="1"/>
-    <col min="35" max="35" width="143.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="147.7109375" customWidth="1"/>
-    <col min="38" max="38" width="155.7109375" customWidth="1"/>
-    <col min="39" max="39" width="172.7109375" customWidth="1"/>
-    <col min="40" max="40" width="129.7109375" customWidth="1"/>
-    <col min="41" max="41" width="137.7109375" customWidth="1"/>
-    <col min="42" max="42" width="74.7109375" customWidth="1"/>
-    <col min="43" max="43" width="89.7109375" customWidth="1"/>
-    <col min="44" max="44" width="174.7109375" customWidth="1"/>
-    <col min="45" max="45" width="154.7109375" customWidth="1"/>
-    <col min="46" max="46" width="69.7109375" customWidth="1"/>
-    <col min="47" max="47" width="58.7109375" customWidth="1"/>
-    <col min="48" max="48" width="141.7109375" customWidth="1"/>
-    <col min="49" max="49" width="109.7109375" customWidth="1"/>
-    <col min="50" max="50" width="69.7109375" customWidth="1"/>
-    <col min="51" max="51" width="58.7109375" customWidth="1"/>
-    <col min="52" max="52" width="141.7109375" customWidth="1"/>
-    <col min="53" max="53" width="106.7109375" customWidth="1"/>
-    <col min="54" max="54" width="69.7109375" customWidth="1"/>
-    <col min="55" max="55" width="58.7109375" customWidth="1"/>
-    <col min="56" max="56" width="141.7109375" customWidth="1"/>
-    <col min="57" max="57" width="108.7109375" customWidth="1"/>
-    <col min="58" max="58" width="69.7109375" customWidth="1"/>
-    <col min="59" max="59" width="58.7109375" customWidth="1"/>
-    <col min="60" max="60" width="141.7109375" customWidth="1"/>
-    <col min="61" max="61" width="117.7109375" customWidth="1"/>
-    <col min="62" max="62" width="32.7109375" customWidth="1"/>
-    <col min="63" max="63" width="67.7109375" customWidth="1"/>
-    <col min="64" max="64" width="41.7109375" customWidth="1"/>
-    <col min="65" max="65" width="84.7109375" customWidth="1"/>
-    <col min="66" max="66" width="104.7109375" customWidth="1"/>
-    <col min="67" max="67" width="104.7109375" customWidth="1"/>
-    <col min="68" max="68" width="104.7109375" customWidth="1"/>
-    <col min="69" max="69" width="88.7109375" customWidth="1"/>
-    <col min="70" max="70" width="69.7109375" customWidth="1"/>
-    <col min="71" max="71" width="58.7109375" customWidth="1"/>
-    <col min="72" max="72" width="141.7109375" customWidth="1"/>
-    <col min="73" max="73" width="67.7109375" customWidth="1"/>
-    <col min="74" max="74" width="58.7109375" customWidth="1"/>
-    <col min="75" max="75" width="141.7109375" customWidth="1"/>
-    <col min="76" max="76" width="79.7109375" customWidth="1"/>
-    <col min="77" max="77" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="72.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="70.6640625" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="46.6640625" customWidth="1"/>
+    <col min="11" max="11" width="103.6640625" customWidth="1"/>
+    <col min="12" max="12" width="58.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="42.6640625" customWidth="1"/>
+    <col min="15" max="15" width="58.6640625" customWidth="1"/>
+    <col min="16" max="16" width="141.6640625" customWidth="1"/>
+    <col min="17" max="17" width="62.6640625" customWidth="1"/>
+    <col min="18" max="18" width="58.6640625" customWidth="1"/>
+    <col min="19" max="19" width="141.6640625" customWidth="1"/>
+    <col min="20" max="20" width="65.6640625" customWidth="1"/>
+    <col min="21" max="21" width="221.6640625" customWidth="1"/>
+    <col min="22" max="22" width="106.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="77.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="82.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="134.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="52.6640625" customWidth="1"/>
+    <col min="35" max="35" width="143.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="147.6640625" customWidth="1"/>
+    <col min="38" max="38" width="155.6640625" customWidth="1"/>
+    <col min="39" max="39" width="172.6640625" customWidth="1"/>
+    <col min="40" max="40" width="129.6640625" customWidth="1"/>
+    <col min="41" max="41" width="137.6640625" customWidth="1"/>
+    <col min="42" max="42" width="74.6640625" customWidth="1"/>
+    <col min="43" max="43" width="89.6640625" customWidth="1"/>
+    <col min="44" max="44" width="174.6640625" customWidth="1"/>
+    <col min="45" max="45" width="154.6640625" customWidth="1"/>
+    <col min="46" max="46" width="69.6640625" customWidth="1"/>
+    <col min="47" max="47" width="58.6640625" customWidth="1"/>
+    <col min="48" max="48" width="141.6640625" customWidth="1"/>
+    <col min="49" max="49" width="109.6640625" customWidth="1"/>
+    <col min="50" max="50" width="69.6640625" customWidth="1"/>
+    <col min="51" max="51" width="58.6640625" customWidth="1"/>
+    <col min="52" max="52" width="141.6640625" customWidth="1"/>
+    <col min="53" max="53" width="106.6640625" customWidth="1"/>
+    <col min="54" max="54" width="69.6640625" customWidth="1"/>
+    <col min="55" max="55" width="58.6640625" customWidth="1"/>
+    <col min="56" max="56" width="141.6640625" customWidth="1"/>
+    <col min="57" max="57" width="108.6640625" customWidth="1"/>
+    <col min="58" max="58" width="69.6640625" customWidth="1"/>
+    <col min="59" max="59" width="58.6640625" customWidth="1"/>
+    <col min="60" max="60" width="141.6640625" customWidth="1"/>
+    <col min="61" max="61" width="117.6640625" customWidth="1"/>
+    <col min="62" max="62" width="32.6640625" customWidth="1"/>
+    <col min="63" max="63" width="67.6640625" customWidth="1"/>
+    <col min="64" max="64" width="41.6640625" customWidth="1"/>
+    <col min="65" max="65" width="84.6640625" customWidth="1"/>
+    <col min="66" max="68" width="104.6640625" customWidth="1"/>
+    <col min="69" max="69" width="88.6640625" customWidth="1"/>
+    <col min="70" max="70" width="69.6640625" customWidth="1"/>
+    <col min="71" max="71" width="58.6640625" customWidth="1"/>
+    <col min="72" max="72" width="141.6640625" customWidth="1"/>
+    <col min="73" max="73" width="67.6640625" customWidth="1"/>
+    <col min="74" max="74" width="58.6640625" customWidth="1"/>
+    <col min="75" max="75" width="141.6640625" customWidth="1"/>
+    <col min="76" max="76" width="79.6640625" customWidth="1"/>
+    <col min="77" max="77" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>913</v>
       </c>
@@ -15934,7 +15981,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:77">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -16167,7 +16214,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:77">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -16382,7 +16429,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:77">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1017</v>
       </c>
@@ -16615,12 +16662,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:77">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:77">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1078</v>
       </c>
@@ -16637,7 +16684,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="7" spans="1:77">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1082</v>
       </c>
@@ -16654,7 +16701,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="8" spans="1:77">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1084</v>
       </c>
@@ -16677,67 +16724,65 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="399.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="71.7109375" customWidth="1"/>
-    <col min="8" max="8" width="57.7109375" customWidth="1"/>
-    <col min="9" max="9" width="57.7109375" customWidth="1"/>
-    <col min="10" max="10" width="80.7109375" customWidth="1"/>
-    <col min="11" max="11" width="84.7109375" customWidth="1"/>
-    <col min="12" max="12" width="66.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="102.7109375" customWidth="1"/>
-    <col min="15" max="15" width="67.7109375" customWidth="1"/>
-    <col min="16" max="16" width="66.7109375" customWidth="1"/>
-    <col min="17" max="17" width="141.7109375" customWidth="1"/>
-    <col min="18" max="18" width="90.7109375" customWidth="1"/>
-    <col min="19" max="19" width="69.7109375" customWidth="1"/>
-    <col min="20" max="20" width="67.7109375" customWidth="1"/>
-    <col min="21" max="21" width="65.7109375" customWidth="1"/>
-    <col min="22" max="22" width="111.7109375" customWidth="1"/>
-    <col min="23" max="23" width="91.7109375" customWidth="1"/>
-    <col min="24" max="24" width="90.7109375" customWidth="1"/>
-    <col min="25" max="25" width="72.7109375" customWidth="1"/>
-    <col min="26" max="26" width="70.7109375" customWidth="1"/>
-    <col min="27" max="27" width="68.7109375" customWidth="1"/>
-    <col min="28" max="28" width="111.7109375" customWidth="1"/>
-    <col min="29" max="29" width="91.7109375" customWidth="1"/>
-    <col min="30" max="30" width="161.7109375" customWidth="1"/>
-    <col min="31" max="31" width="52.7109375" customWidth="1"/>
-    <col min="32" max="32" width="320.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="57.7109375" customWidth="1"/>
-    <col min="35" max="35" width="55.7109375" customWidth="1"/>
-    <col min="36" max="36" width="53.7109375" customWidth="1"/>
-    <col min="37" max="37" width="111.7109375" customWidth="1"/>
-    <col min="38" max="38" width="91.7109375" customWidth="1"/>
-    <col min="39" max="39" width="47.7109375" customWidth="1"/>
-    <col min="40" max="40" width="71.7109375" customWidth="1"/>
-    <col min="41" max="41" width="56.7109375" customWidth="1"/>
-    <col min="42" max="42" width="56.7109375" customWidth="1"/>
-    <col min="43" max="43" width="80.7109375" customWidth="1"/>
-    <col min="44" max="44" width="67.7109375" customWidth="1"/>
-    <col min="45" max="45" width="70.7109375" customWidth="1"/>
-    <col min="46" max="46" width="141.7109375" customWidth="1"/>
-    <col min="47" max="47" width="68.7109375" customWidth="1"/>
-    <col min="48" max="48" width="72.7109375" customWidth="1"/>
-    <col min="49" max="49" width="141.7109375" customWidth="1"/>
-    <col min="50" max="50" width="56.7109375" customWidth="1"/>
-    <col min="51" max="51" width="74.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="399.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="71.6640625" customWidth="1"/>
+    <col min="8" max="9" width="57.6640625" customWidth="1"/>
+    <col min="10" max="10" width="80.6640625" customWidth="1"/>
+    <col min="11" max="11" width="84.6640625" customWidth="1"/>
+    <col min="12" max="12" width="66.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="102.6640625" customWidth="1"/>
+    <col min="15" max="15" width="67.6640625" customWidth="1"/>
+    <col min="16" max="16" width="66.6640625" customWidth="1"/>
+    <col min="17" max="17" width="141.6640625" customWidth="1"/>
+    <col min="18" max="18" width="90.6640625" customWidth="1"/>
+    <col min="19" max="19" width="69.6640625" customWidth="1"/>
+    <col min="20" max="20" width="67.6640625" customWidth="1"/>
+    <col min="21" max="21" width="65.6640625" customWidth="1"/>
+    <col min="22" max="22" width="111.6640625" customWidth="1"/>
+    <col min="23" max="23" width="91.6640625" customWidth="1"/>
+    <col min="24" max="24" width="90.6640625" customWidth="1"/>
+    <col min="25" max="25" width="72.6640625" customWidth="1"/>
+    <col min="26" max="26" width="70.6640625" customWidth="1"/>
+    <col min="27" max="27" width="68.6640625" customWidth="1"/>
+    <col min="28" max="28" width="111.6640625" customWidth="1"/>
+    <col min="29" max="29" width="91.6640625" customWidth="1"/>
+    <col min="30" max="30" width="161.6640625" customWidth="1"/>
+    <col min="31" max="31" width="52.6640625" customWidth="1"/>
+    <col min="32" max="32" width="320.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="57.6640625" customWidth="1"/>
+    <col min="35" max="35" width="55.6640625" customWidth="1"/>
+    <col min="36" max="36" width="53.6640625" customWidth="1"/>
+    <col min="37" max="37" width="111.6640625" customWidth="1"/>
+    <col min="38" max="38" width="91.6640625" customWidth="1"/>
+    <col min="39" max="39" width="47.6640625" customWidth="1"/>
+    <col min="40" max="40" width="71.6640625" customWidth="1"/>
+    <col min="41" max="42" width="56.6640625" customWidth="1"/>
+    <col min="43" max="43" width="80.6640625" customWidth="1"/>
+    <col min="44" max="44" width="67.6640625" customWidth="1"/>
+    <col min="45" max="45" width="70.6640625" customWidth="1"/>
+    <col min="46" max="46" width="141.6640625" customWidth="1"/>
+    <col min="47" max="47" width="68.6640625" customWidth="1"/>
+    <col min="48" max="48" width="72.6640625" customWidth="1"/>
+    <col min="49" max="49" width="141.6640625" customWidth="1"/>
+    <col min="50" max="50" width="56.6640625" customWidth="1"/>
+    <col min="51" max="51" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1086</v>
       </c>
@@ -16892,7 +16937,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -17047,7 +17092,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -17196,7 +17241,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1187</v>
       </c>
@@ -17351,12 +17396,12 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1238</v>
       </c>
@@ -17373,25 +17418,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="162.7109375" customWidth="1"/>
-    <col min="2" max="2" width="153.7109375" customWidth="1"/>
-    <col min="3" max="3" width="1879.7109375" customWidth="1"/>
-    <col min="4" max="4" width="223.7109375" customWidth="1"/>
-    <col min="5" max="5" width="171.7109375" customWidth="1"/>
-    <col min="6" max="6" width="99.7109375" customWidth="1"/>
-    <col min="7" max="7" width="99.7109375" customWidth="1"/>
-    <col min="8" max="8" width="174.7109375" customWidth="1"/>
-    <col min="9" max="9" width="75.7109375" customWidth="1"/>
+    <col min="1" max="1" width="162.6640625" customWidth="1"/>
+    <col min="2" max="2" width="153.6640625" customWidth="1"/>
+    <col min="3" max="3" width="1879.6640625" customWidth="1"/>
+    <col min="4" max="4" width="223.6640625" customWidth="1"/>
+    <col min="5" max="5" width="171.6640625" customWidth="1"/>
+    <col min="6" max="7" width="99.6640625" customWidth="1"/>
+    <col min="8" max="8" width="174.6640625" customWidth="1"/>
+    <col min="9" max="9" width="75.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1241</v>
       </c>
@@ -17420,7 +17464,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1250</v>
       </c>
@@ -17449,7 +17493,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1259</v>
       </c>
@@ -17478,7 +17522,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1268</v>
       </c>
@@ -17507,12 +17551,12 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1277</v>
       </c>
@@ -17538,28 +17582,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="103.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="75.7109375" customWidth="1"/>
-    <col min="6" max="6" width="127.7109375" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
-    <col min="8" max="8" width="70.7109375" customWidth="1"/>
-    <col min="9" max="9" width="64.7109375" customWidth="1"/>
-    <col min="10" max="10" width="58.7109375" customWidth="1"/>
-    <col min="11" max="11" width="141.7109375" customWidth="1"/>
-    <col min="12" max="12" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="103.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="75.6640625" customWidth="1"/>
+    <col min="6" max="6" width="127.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="70.6640625" customWidth="1"/>
+    <col min="9" max="9" width="64.6640625" customWidth="1"/>
+    <col min="10" max="10" width="58.6640625" customWidth="1"/>
+    <col min="11" max="11" width="141.6640625" customWidth="1"/>
+    <col min="12" max="12" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1283</v>
       </c>
@@ -17597,7 +17641,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1295</v>
       </c>
@@ -17635,7 +17679,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1305</v>
       </c>
@@ -17673,7 +17717,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1316</v>
       </c>
@@ -17711,12 +17755,12 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1328</v>
       </c>
@@ -17739,21 +17783,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.7109375" customWidth="1"/>
-    <col min="2" max="2" width="55.7109375" customWidth="1"/>
-    <col min="3" max="3" width="68.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="5" max="5" width="68.7109375" customWidth="1"/>
+    <col min="1" max="1" width="67.6640625" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" customWidth="1"/>
+    <col min="3" max="3" width="68.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="5" max="5" width="68.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1333</v>
       </c>
@@ -17770,7 +17814,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1337</v>
       </c>
@@ -17787,7 +17831,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1342</v>
       </c>
@@ -17804,7 +17848,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1347</v>
       </c>
@@ -17821,12 +17865,12 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>1352</v>
       </c>
@@ -17837,46 +17881,44 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD619"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="85.7109375" customWidth="1"/>
-    <col min="2" max="2" width="94.7109375" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="58.7109375" customWidth="1"/>
-    <col min="5" max="5" width="141.7109375" customWidth="1"/>
-    <col min="6" max="6" width="47.7109375" customWidth="1"/>
-    <col min="7" max="7" width="117.7109375" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" customWidth="1"/>
-    <col min="9" max="9" width="61.7109375" customWidth="1"/>
-    <col min="10" max="10" width="168.7109375" customWidth="1"/>
-    <col min="11" max="11" width="156.7109375" customWidth="1"/>
-    <col min="12" max="12" width="73.7109375" customWidth="1"/>
-    <col min="13" max="13" width="80.7109375" customWidth="1"/>
-    <col min="14" max="14" width="71.7109375" customWidth="1"/>
-    <col min="15" max="15" width="32.7109375" customWidth="1"/>
-    <col min="16" max="16" width="67.7109375" customWidth="1"/>
-    <col min="17" max="17" width="41.7109375" customWidth="1"/>
-    <col min="18" max="18" width="84.7109375" customWidth="1"/>
-    <col min="19" max="19" width="104.7109375" customWidth="1"/>
-    <col min="20" max="20" width="104.7109375" customWidth="1"/>
-    <col min="21" max="21" width="104.7109375" customWidth="1"/>
-    <col min="22" max="22" width="88.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="67.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="79.7109375" customWidth="1"/>
-    <col min="30" max="30" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="85.6640625" customWidth="1"/>
+    <col min="2" max="2" width="94.6640625" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" customWidth="1"/>
+    <col min="5" max="5" width="141.6640625" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" customWidth="1"/>
+    <col min="7" max="7" width="117.6640625" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" customWidth="1"/>
+    <col min="9" max="9" width="61.6640625" customWidth="1"/>
+    <col min="10" max="10" width="168.6640625" customWidth="1"/>
+    <col min="11" max="11" width="156.6640625" customWidth="1"/>
+    <col min="12" max="12" width="73.6640625" customWidth="1"/>
+    <col min="13" max="13" width="80.6640625" customWidth="1"/>
+    <col min="14" max="14" width="71.6640625" customWidth="1"/>
+    <col min="15" max="15" width="32.6640625" customWidth="1"/>
+    <col min="16" max="16" width="67.6640625" customWidth="1"/>
+    <col min="17" max="17" width="41.6640625" customWidth="1"/>
+    <col min="18" max="18" width="84.6640625" customWidth="1"/>
+    <col min="19" max="21" width="104.6640625" customWidth="1"/>
+    <col min="22" max="22" width="88.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="67.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="79.6640625" customWidth="1"/>
+    <col min="30" max="30" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1353</v>
       </c>
@@ -17968,7 +18010,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1365</v>
       </c>
@@ -18060,7 +18102,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1374</v>
       </c>
@@ -18140,7 +18182,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1384</v>
       </c>
@@ -18232,12 +18274,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1396</v>
       </c>
@@ -18260,7 +18302,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1401</v>
       </c>
@@ -18283,7 +18325,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1403</v>
       </c>
@@ -18306,7 +18348,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1405</v>
       </c>
@@ -18329,7 +18371,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1406</v>
       </c>
@@ -18352,7 +18394,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1408</v>
       </c>
@@ -18375,7 +18417,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1409</v>
       </c>
@@ -18398,7 +18440,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1411</v>
       </c>
@@ -18421,7 +18463,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1412</v>
       </c>
@@ -18444,7 +18486,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1414</v>
       </c>
@@ -18467,7 +18509,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1415</v>
       </c>
@@ -18490,7 +18532,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1417</v>
       </c>
@@ -18513,7 +18555,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1418</v>
       </c>
@@ -18536,7 +18578,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1420</v>
       </c>
@@ -18559,7 +18601,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1421</v>
       </c>
@@ -18582,7 +18624,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1423</v>
       </c>
@@ -18605,7 +18647,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1424</v>
       </c>
@@ -18628,7 +18670,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1426</v>
       </c>
@@ -18651,7 +18693,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1427</v>
       </c>
@@ -18674,7 +18716,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1429</v>
       </c>
@@ -18697,7 +18739,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1430</v>
       </c>
@@ -18720,7 +18762,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1432</v>
       </c>
@@ -18743,7 +18785,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1433</v>
       </c>
@@ -18766,7 +18808,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1435</v>
       </c>
@@ -18789,7 +18831,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1436</v>
       </c>
@@ -18812,7 +18854,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1438</v>
       </c>
@@ -18835,7 +18877,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1439</v>
       </c>
@@ -18858,7 +18900,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1441</v>
       </c>
@@ -18881,7 +18923,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1442</v>
       </c>
@@ -18904,7 +18946,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1444</v>
       </c>
@@ -18927,7 +18969,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1445</v>
       </c>
@@ -18950,7 +18992,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1447</v>
       </c>
@@ -18973,7 +19015,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1448</v>
       </c>
@@ -18996,7 +19038,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1450</v>
       </c>
@@ -19019,7 +19061,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1451</v>
       </c>
@@ -19042,7 +19084,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1453</v>
       </c>
@@ -19065,7 +19107,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1454</v>
       </c>
@@ -19088,7 +19130,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1456</v>
       </c>
@@ -19111,7 +19153,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1457</v>
       </c>
@@ -19134,7 +19176,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1459</v>
       </c>
@@ -19157,7 +19199,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1460</v>
       </c>
@@ -19180,7 +19222,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1462</v>
       </c>
@@ -19203,7 +19245,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1463</v>
       </c>
@@ -19226,7 +19268,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1465</v>
       </c>
@@ -19249,7 +19291,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1466</v>
       </c>
@@ -19272,7 +19314,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1468</v>
       </c>
@@ -19295,7 +19337,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1469</v>
       </c>
@@ -19318,7 +19360,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1471</v>
       </c>
@@ -19341,7 +19383,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1472</v>
       </c>
@@ -19364,7 +19406,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1474</v>
       </c>
@@ -19387,7 +19429,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1475</v>
       </c>
@@ -19410,7 +19452,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1477</v>
       </c>
@@ -19433,7 +19475,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1478</v>
       </c>
@@ -19456,7 +19498,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1480</v>
       </c>
@@ -19479,7 +19521,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1481</v>
       </c>
@@ -19502,7 +19544,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1483</v>
       </c>
@@ -19525,7 +19567,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1484</v>
       </c>
@@ -19548,7 +19590,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1486</v>
       </c>
@@ -19571,7 +19613,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1487</v>
       </c>
@@ -19594,7 +19636,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1489</v>
       </c>
@@ -19617,7 +19659,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1490</v>
       </c>
@@ -19640,7 +19682,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1492</v>
       </c>
@@ -19663,7 +19705,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1493</v>
       </c>
@@ -19686,7 +19728,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1495</v>
       </c>
@@ -19709,7 +19751,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1496</v>
       </c>
@@ -19732,7 +19774,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1498</v>
       </c>
@@ -19755,7 +19797,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1499</v>
       </c>
@@ -19778,7 +19820,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1501</v>
       </c>
@@ -19801,7 +19843,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1502</v>
       </c>
@@ -19824,7 +19866,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1504</v>
       </c>
@@ -19847,7 +19889,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1505</v>
       </c>
@@ -19870,7 +19912,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1507</v>
       </c>
@@ -19893,7 +19935,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1508</v>
       </c>
@@ -19916,7 +19958,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1510</v>
       </c>
@@ -19939,7 +19981,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1511</v>
       </c>
@@ -19962,7 +20004,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1513</v>
       </c>
@@ -19985,7 +20027,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1514</v>
       </c>
@@ -20008,7 +20050,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>1516</v>
       </c>
@@ -20031,7 +20073,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>1517</v>
       </c>
@@ -20054,7 +20096,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>1519</v>
       </c>
@@ -20077,7 +20119,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>1520</v>
       </c>
@@ -20100,7 +20142,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1522</v>
       </c>
@@ -20123,7 +20165,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1523</v>
       </c>
@@ -20146,7 +20188,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>1525</v>
       </c>
@@ -20169,7 +20211,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1526</v>
       </c>
@@ -20192,7 +20234,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1528</v>
       </c>
@@ -20215,7 +20257,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>1529</v>
       </c>
@@ -20238,7 +20280,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>1531</v>
       </c>
@@ -20261,7 +20303,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>1532</v>
       </c>
@@ -20284,7 +20326,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>1534</v>
       </c>
@@ -20307,7 +20349,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>1535</v>
       </c>
@@ -20330,7 +20372,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>1537</v>
       </c>
@@ -20353,7 +20395,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>1538</v>
       </c>
@@ -20376,7 +20418,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>1540</v>
       </c>
@@ -20399,7 +20441,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>1541</v>
       </c>
@@ -20422,7 +20464,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>1543</v>
       </c>
@@ -20445,7 +20487,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>1544</v>
       </c>
@@ -20468,7 +20510,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>1546</v>
       </c>
@@ -20491,7 +20533,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>1547</v>
       </c>
@@ -20514,7 +20556,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>1549</v>
       </c>
@@ -20537,7 +20579,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>1550</v>
       </c>
@@ -20560,7 +20602,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>1552</v>
       </c>
@@ -20583,7 +20625,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1553</v>
       </c>
@@ -20606,7 +20648,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1555</v>
       </c>
@@ -20629,7 +20671,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1556</v>
       </c>
@@ -20652,7 +20694,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1558</v>
       </c>
@@ -20675,7 +20717,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>1559</v>
       </c>
@@ -20698,7 +20740,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1561</v>
       </c>
@@ -20721,7 +20763,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>1562</v>
       </c>
@@ -20744,7 +20786,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>1564</v>
       </c>
@@ -20767,7 +20809,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1565</v>
       </c>
@@ -20790,7 +20832,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>1567</v>
       </c>
@@ -20813,7 +20855,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>1568</v>
       </c>
@@ -20836,7 +20878,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>1570</v>
       </c>
@@ -20859,7 +20901,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>1571</v>
       </c>
@@ -20882,7 +20924,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>1573</v>
       </c>
@@ -20905,7 +20947,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>1574</v>
       </c>
@@ -20928,7 +20970,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>1576</v>
       </c>
@@ -20951,7 +20993,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>1577</v>
       </c>
@@ -20974,7 +21016,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>1579</v>
       </c>
@@ -20997,7 +21039,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>1580</v>
       </c>
@@ -21020,7 +21062,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>1582</v>
       </c>
@@ -21043,7 +21085,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>1583</v>
       </c>
@@ -21066,7 +21108,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>1585</v>
       </c>
@@ -21089,7 +21131,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>1586</v>
       </c>
@@ -21112,7 +21154,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>1588</v>
       </c>
@@ -21135,7 +21177,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1589</v>
       </c>
@@ -21158,7 +21200,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>1591</v>
       </c>
@@ -21181,7 +21223,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>1592</v>
       </c>
@@ -21204,7 +21246,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>1594</v>
       </c>
@@ -21227,7 +21269,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>1595</v>
       </c>
@@ -21250,7 +21292,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>1597</v>
       </c>
@@ -21273,7 +21315,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1598</v>
       </c>
@@ -21296,7 +21338,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>1600</v>
       </c>
@@ -21319,7 +21361,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>1601</v>
       </c>
@@ -21342,7 +21384,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>1603</v>
       </c>
@@ -21365,7 +21407,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>1604</v>
       </c>
@@ -21388,7 +21430,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>1606</v>
       </c>
@@ -21411,7 +21453,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>1607</v>
       </c>
@@ -21434,7 +21476,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>1609</v>
       </c>
@@ -21457,7 +21499,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>1610</v>
       </c>
@@ -21480,7 +21522,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>1612</v>
       </c>
@@ -21503,7 +21545,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>1613</v>
       </c>
@@ -21526,7 +21568,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>1615</v>
       </c>
@@ -21549,7 +21591,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>1616</v>
       </c>
@@ -21572,7 +21614,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>1618</v>
       </c>
@@ -21595,7 +21637,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>1619</v>
       </c>
@@ -21618,7 +21660,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>1621</v>
       </c>
@@ -21641,7 +21683,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>1622</v>
       </c>
@@ -21664,7 +21706,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>1624</v>
       </c>
@@ -21687,7 +21729,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>1625</v>
       </c>
@@ -21710,7 +21752,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>1627</v>
       </c>
@@ -21733,7 +21775,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>1628</v>
       </c>
@@ -21756,7 +21798,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>1630</v>
       </c>
@@ -21779,7 +21821,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1631</v>
       </c>
@@ -21802,7 +21844,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>1633</v>
       </c>
@@ -21825,7 +21867,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>1634</v>
       </c>
@@ -21848,7 +21890,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>1636</v>
       </c>
@@ -21871,7 +21913,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>1637</v>
       </c>
@@ -21894,7 +21936,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>1639</v>
       </c>
@@ -21917,7 +21959,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>1640</v>
       </c>
@@ -21940,7 +21982,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>1642</v>
       </c>
@@ -21963,7 +22005,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>1643</v>
       </c>
@@ -21986,7 +22028,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>1645</v>
       </c>
@@ -22009,7 +22051,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>1646</v>
       </c>
@@ -22032,7 +22074,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>1648</v>
       </c>
@@ -22055,7 +22097,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>1649</v>
       </c>
@@ -22078,7 +22120,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>1651</v>
       </c>
@@ -22101,7 +22143,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>1652</v>
       </c>
@@ -22124,7 +22166,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>1654</v>
       </c>
@@ -22147,7 +22189,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>1655</v>
       </c>
@@ -22170,7 +22212,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>1657</v>
       </c>
@@ -22193,7 +22235,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="178" spans="1:14">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>1658</v>
       </c>
@@ -22216,7 +22258,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="179" spans="1:14">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>1660</v>
       </c>
@@ -22239,7 +22281,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="180" spans="1:14">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>1661</v>
       </c>
@@ -22262,7 +22304,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="181" spans="1:14">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>1663</v>
       </c>
@@ -22285,7 +22327,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="182" spans="1:14">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>1664</v>
       </c>
@@ -22308,7 +22350,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="183" spans="1:14">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>1666</v>
       </c>
@@ -22331,7 +22373,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="184" spans="1:14">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>1667</v>
       </c>
@@ -22354,7 +22396,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="185" spans="1:14">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>1669</v>
       </c>
@@ -22377,7 +22419,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="186" spans="1:14">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>1670</v>
       </c>
@@ -22400,7 +22442,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="187" spans="1:14">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>1672</v>
       </c>
@@ -22423,7 +22465,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="188" spans="1:14">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>1673</v>
       </c>
@@ -22446,7 +22488,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="189" spans="1:14">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>1675</v>
       </c>
@@ -22469,7 +22511,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="190" spans="1:14">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>1676</v>
       </c>
@@ -22492,7 +22534,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="191" spans="1:14">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>1678</v>
       </c>
@@ -22515,7 +22557,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="192" spans="1:14">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>1679</v>
       </c>
@@ -22538,7 +22580,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="193" spans="1:14">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>1681</v>
       </c>
@@ -22561,7 +22603,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="194" spans="1:14">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>1682</v>
       </c>
@@ -22584,7 +22626,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="195" spans="1:14">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>1684</v>
       </c>
@@ -22607,7 +22649,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="196" spans="1:14">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>1685</v>
       </c>
@@ -22630,7 +22672,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="197" spans="1:14">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>1687</v>
       </c>
@@ -22653,7 +22695,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="198" spans="1:14">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>1688</v>
       </c>
@@ -22676,7 +22718,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="199" spans="1:14">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>1690</v>
       </c>
@@ -22699,7 +22741,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="200" spans="1:14">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>1691</v>
       </c>
@@ -22722,7 +22764,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="201" spans="1:14">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>1693</v>
       </c>
@@ -22745,7 +22787,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="202" spans="1:14">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>1694</v>
       </c>
@@ -22768,7 +22810,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="203" spans="1:14">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>1696</v>
       </c>
@@ -22791,7 +22833,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="204" spans="1:14">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>1697</v>
       </c>
@@ -22814,7 +22856,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="205" spans="1:14">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>1699</v>
       </c>
@@ -22837,7 +22879,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="206" spans="1:14">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>1700</v>
       </c>
@@ -22860,7 +22902,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="207" spans="1:14">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>1702</v>
       </c>
@@ -22883,7 +22925,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="208" spans="1:14">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>1703</v>
       </c>
@@ -22906,7 +22948,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="209" spans="1:14">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>1705</v>
       </c>
@@ -22929,7 +22971,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="210" spans="1:14">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>1706</v>
       </c>
@@ -22952,7 +22994,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="211" spans="1:14">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>1708</v>
       </c>
@@ -22975,7 +23017,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="212" spans="1:14">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>1709</v>
       </c>
@@ -22998,7 +23040,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="213" spans="1:14">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>1711</v>
       </c>
@@ -23021,7 +23063,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="214" spans="1:14">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>1712</v>
       </c>
@@ -23044,7 +23086,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="215" spans="1:14">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>1714</v>
       </c>
@@ -23067,7 +23109,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="216" spans="1:14">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>1715</v>
       </c>
@@ -23090,7 +23132,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="217" spans="1:14">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>1717</v>
       </c>
@@ -23113,7 +23155,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="218" spans="1:14">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>1718</v>
       </c>
@@ -23136,7 +23178,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="219" spans="1:14">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>1720</v>
       </c>
@@ -23159,7 +23201,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="220" spans="1:14">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>1721</v>
       </c>
@@ -23182,7 +23224,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="221" spans="1:14">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>1723</v>
       </c>
@@ -23205,7 +23247,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="222" spans="1:14">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>1724</v>
       </c>
@@ -23228,7 +23270,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="223" spans="1:14">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>1726</v>
       </c>
@@ -23251,7 +23293,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="224" spans="1:14">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>1727</v>
       </c>
@@ -23274,7 +23316,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="225" spans="1:14">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>1729</v>
       </c>
@@ -23297,7 +23339,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="226" spans="1:14">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>1730</v>
       </c>
@@ -23320,7 +23362,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="227" spans="1:14">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>1732</v>
       </c>
@@ -23343,7 +23385,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="228" spans="1:14">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>1733</v>
       </c>
@@ -23366,7 +23408,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="229" spans="1:14">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>1735</v>
       </c>
@@ -23389,7 +23431,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="230" spans="1:14">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>1736</v>
       </c>
@@ -23412,7 +23454,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="231" spans="1:14">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>1738</v>
       </c>
@@ -23435,7 +23477,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="232" spans="1:14">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>1739</v>
       </c>
@@ -23458,7 +23500,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="233" spans="1:14">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>1741</v>
       </c>
@@ -23481,7 +23523,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="234" spans="1:14">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>1742</v>
       </c>
@@ -23504,7 +23546,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="235" spans="1:14">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>1744</v>
       </c>
@@ -23527,7 +23569,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="236" spans="1:14">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>1745</v>
       </c>
@@ -23550,7 +23592,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="237" spans="1:14">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>1747</v>
       </c>
@@ -23573,7 +23615,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="238" spans="1:14">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>1748</v>
       </c>
@@ -23596,7 +23638,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="239" spans="1:14">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>1750</v>
       </c>
@@ -23619,7 +23661,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="240" spans="1:14">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>1751</v>
       </c>
@@ -23642,7 +23684,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="241" spans="1:14">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>1753</v>
       </c>
@@ -23665,7 +23707,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="242" spans="1:14">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>1754</v>
       </c>
@@ -23688,7 +23730,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="243" spans="1:14">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>1756</v>
       </c>
@@ -23711,7 +23753,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="244" spans="1:14">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>1757</v>
       </c>
@@ -23734,7 +23776,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="245" spans="1:14">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>1759</v>
       </c>
@@ -23757,7 +23799,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="246" spans="1:14">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>1760</v>
       </c>
@@ -23780,7 +23822,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="247" spans="1:14">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>1762</v>
       </c>
@@ -23803,7 +23845,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="248" spans="1:14">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>1763</v>
       </c>
@@ -23826,7 +23868,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="249" spans="1:14">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>1765</v>
       </c>
@@ -23849,7 +23891,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="250" spans="1:14">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>1766</v>
       </c>
@@ -23872,7 +23914,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="251" spans="1:14">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>1768</v>
       </c>
@@ -23895,7 +23937,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="252" spans="1:14">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>1769</v>
       </c>
@@ -23918,7 +23960,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="253" spans="1:14">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>1771</v>
       </c>
@@ -23941,7 +23983,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="254" spans="1:14">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>1772</v>
       </c>
@@ -23964,7 +24006,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="255" spans="1:14">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>1774</v>
       </c>
@@ -23987,7 +24029,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="256" spans="1:14">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>1775</v>
       </c>
@@ -24010,7 +24052,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="257" spans="1:14">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>1777</v>
       </c>
@@ -24033,7 +24075,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="258" spans="1:14">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>1778</v>
       </c>
@@ -24056,7 +24098,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="259" spans="1:14">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>1780</v>
       </c>
@@ -24079,7 +24121,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="260" spans="1:14">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>1781</v>
       </c>
@@ -24102,7 +24144,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="261" spans="1:14">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>1783</v>
       </c>
@@ -24125,7 +24167,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="262" spans="1:14">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>1784</v>
       </c>
@@ -24148,7 +24190,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="263" spans="1:14">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>1786</v>
       </c>
@@ -24171,7 +24213,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="264" spans="1:14">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>1787</v>
       </c>
@@ -24194,7 +24236,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="265" spans="1:14">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>1789</v>
       </c>
@@ -24217,7 +24259,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="266" spans="1:14">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>1790</v>
       </c>
@@ -24240,7 +24282,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="267" spans="1:14">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>1792</v>
       </c>
@@ -24263,7 +24305,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="268" spans="1:14">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>1793</v>
       </c>
@@ -24286,7 +24328,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="269" spans="1:14">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>1795</v>
       </c>
@@ -24309,7 +24351,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="270" spans="1:14">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>1796</v>
       </c>
@@ -24332,7 +24374,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="271" spans="1:14">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>1798</v>
       </c>
@@ -24355,7 +24397,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="272" spans="1:14">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>1799</v>
       </c>
@@ -24378,7 +24420,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="273" spans="1:14">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>1801</v>
       </c>
@@ -24401,7 +24443,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="274" spans="1:14">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>1802</v>
       </c>
@@ -24424,7 +24466,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="275" spans="1:14">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>1804</v>
       </c>
@@ -24447,7 +24489,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="276" spans="1:14">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>1805</v>
       </c>
@@ -24470,7 +24512,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="277" spans="1:14">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>1807</v>
       </c>
@@ -24493,7 +24535,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="278" spans="1:14">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>1808</v>
       </c>
@@ -24516,7 +24558,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="279" spans="1:14">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>1810</v>
       </c>
@@ -24539,7 +24581,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="280" spans="1:14">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>1811</v>
       </c>
@@ -24562,7 +24604,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="281" spans="1:14">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>1813</v>
       </c>
@@ -24585,7 +24627,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="282" spans="1:14">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>1814</v>
       </c>
@@ -24608,7 +24650,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="283" spans="1:14">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>1816</v>
       </c>
@@ -24631,7 +24673,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="284" spans="1:14">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>1817</v>
       </c>
@@ -24654,7 +24696,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="285" spans="1:14">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>1819</v>
       </c>
@@ -24677,7 +24719,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="286" spans="1:14">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>1820</v>
       </c>
@@ -24700,7 +24742,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="287" spans="1:14">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>1822</v>
       </c>
@@ -24723,7 +24765,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="288" spans="1:14">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>1823</v>
       </c>
@@ -24746,7 +24788,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="289" spans="1:14">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>1825</v>
       </c>
@@ -24769,7 +24811,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="290" spans="1:14">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>1826</v>
       </c>
@@ -24792,7 +24834,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="291" spans="1:14">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>1828</v>
       </c>
@@ -24815,7 +24857,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="292" spans="1:14">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>1829</v>
       </c>
@@ -24838,7 +24880,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="293" spans="1:14">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>1831</v>
       </c>
@@ -24861,7 +24903,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="294" spans="1:14">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>1832</v>
       </c>
@@ -24884,7 +24926,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="295" spans="1:14">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>1834</v>
       </c>
@@ -24907,7 +24949,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="296" spans="1:14">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>1835</v>
       </c>
@@ -24930,7 +24972,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="297" spans="1:14">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>1837</v>
       </c>
@@ -24953,7 +24995,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="298" spans="1:14">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>1838</v>
       </c>
@@ -24976,7 +25018,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="299" spans="1:14">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>1840</v>
       </c>
@@ -24999,7 +25041,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="300" spans="1:14">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>1841</v>
       </c>
@@ -25022,7 +25064,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="301" spans="1:14">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>1843</v>
       </c>
@@ -25045,7 +25087,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="302" spans="1:14">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>1844</v>
       </c>
@@ -25068,7 +25110,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="303" spans="1:14">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>1846</v>
       </c>
@@ -25091,7 +25133,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="304" spans="1:14">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>1847</v>
       </c>
@@ -25114,7 +25156,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="305" spans="1:14">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>1849</v>
       </c>
@@ -25137,7 +25179,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="306" spans="1:14">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>1850</v>
       </c>
@@ -25160,7 +25202,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="307" spans="1:14">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>1852</v>
       </c>
@@ -25183,7 +25225,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="308" spans="1:14">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>1853</v>
       </c>
@@ -25206,7 +25248,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="309" spans="1:14">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>1855</v>
       </c>
@@ -25229,7 +25271,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="310" spans="1:14">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>1856</v>
       </c>
@@ -25252,7 +25294,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="311" spans="1:14">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>1858</v>
       </c>
@@ -25275,7 +25317,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="312" spans="1:14">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>1859</v>
       </c>
@@ -25298,7 +25340,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="313" spans="1:14">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>1861</v>
       </c>
@@ -25321,7 +25363,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="314" spans="1:14">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>1862</v>
       </c>
@@ -25344,7 +25386,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="315" spans="1:14">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>1864</v>
       </c>
@@ -25367,7 +25409,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="316" spans="1:14">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>1865</v>
       </c>
@@ -25390,7 +25432,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="317" spans="1:14">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>1867</v>
       </c>
@@ -25413,7 +25455,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="318" spans="1:14">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>1868</v>
       </c>
@@ -25436,7 +25478,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="319" spans="1:14">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>1870</v>
       </c>
@@ -25459,7 +25501,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="320" spans="1:14">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>1871</v>
       </c>
@@ -25482,7 +25524,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="321" spans="1:14">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>1873</v>
       </c>
@@ -25505,7 +25547,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="322" spans="1:14">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>1874</v>
       </c>
@@ -25528,7 +25570,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="323" spans="1:14">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>1876</v>
       </c>
@@ -25551,7 +25593,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="324" spans="1:14">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>1877</v>
       </c>
@@ -25574,7 +25616,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="325" spans="1:14">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>1879</v>
       </c>
@@ -25597,7 +25639,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="326" spans="1:14">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>1880</v>
       </c>
@@ -25620,7 +25662,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="327" spans="1:14">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>1882</v>
       </c>
@@ -25643,7 +25685,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="328" spans="1:14">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>1883</v>
       </c>
@@ -25666,7 +25708,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="329" spans="1:14">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>1885</v>
       </c>
@@ -25689,7 +25731,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="330" spans="1:14">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>1886</v>
       </c>
@@ -25712,7 +25754,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="331" spans="1:14">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>1888</v>
       </c>
@@ -25735,7 +25777,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="332" spans="1:14">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>1889</v>
       </c>
@@ -25758,7 +25800,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="333" spans="1:14">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>1891</v>
       </c>
@@ -25781,7 +25823,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="334" spans="1:14">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>1892</v>
       </c>
@@ -25804,7 +25846,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="335" spans="1:14">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>1894</v>
       </c>
@@ -25827,7 +25869,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="336" spans="1:14">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>1895</v>
       </c>
@@ -25850,7 +25892,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="337" spans="1:14">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>1897</v>
       </c>
@@ -25873,7 +25915,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="338" spans="1:14">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>1898</v>
       </c>
@@ -25896,7 +25938,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="339" spans="1:14">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>1900</v>
       </c>
@@ -25919,7 +25961,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="340" spans="1:14">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>1901</v>
       </c>
@@ -25942,7 +25984,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="341" spans="1:14">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>1903</v>
       </c>
@@ -25965,7 +26007,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="342" spans="1:14">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>1904</v>
       </c>
@@ -25988,7 +26030,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="343" spans="1:14">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>1906</v>
       </c>
@@ -26011,7 +26053,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="344" spans="1:14">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>1907</v>
       </c>
@@ -26034,7 +26076,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="345" spans="1:14">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>1909</v>
       </c>
@@ -26057,7 +26099,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="346" spans="1:14">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>1910</v>
       </c>
@@ -26080,7 +26122,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="347" spans="1:14">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>1912</v>
       </c>
@@ -26103,7 +26145,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="348" spans="1:14">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>1913</v>
       </c>
@@ -26126,7 +26168,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="349" spans="1:14">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>1915</v>
       </c>
@@ -26149,7 +26191,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="350" spans="1:14">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>1916</v>
       </c>
@@ -26172,7 +26214,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="351" spans="1:14">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>1918</v>
       </c>
@@ -26195,7 +26237,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="352" spans="1:14">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>1919</v>
       </c>
@@ -26218,7 +26260,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="353" spans="1:14">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>1921</v>
       </c>
@@ -26241,7 +26283,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="354" spans="1:14">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>1922</v>
       </c>
@@ -26264,7 +26306,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="355" spans="1:14">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>1924</v>
       </c>
@@ -26287,7 +26329,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="356" spans="1:14">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>1925</v>
       </c>
@@ -26310,7 +26352,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="357" spans="1:14">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>1927</v>
       </c>
@@ -26333,7 +26375,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="358" spans="1:14">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>1928</v>
       </c>
@@ -26356,7 +26398,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="359" spans="1:14">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>1930</v>
       </c>
@@ -26379,7 +26421,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="360" spans="1:14">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>1931</v>
       </c>
@@ -26402,7 +26444,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="361" spans="1:14">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>1933</v>
       </c>
@@ -26425,7 +26467,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="362" spans="1:14">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>1934</v>
       </c>
@@ -26448,7 +26490,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="363" spans="1:14">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>1936</v>
       </c>
@@ -26471,7 +26513,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="364" spans="1:14">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>1937</v>
       </c>
@@ -26494,7 +26536,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="365" spans="1:14">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>1939</v>
       </c>
@@ -26517,7 +26559,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="366" spans="1:14">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>1940</v>
       </c>
@@ -26540,7 +26582,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="367" spans="1:14">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>1942</v>
       </c>
@@ -26563,7 +26605,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="368" spans="1:14">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>1943</v>
       </c>
@@ -26586,7 +26628,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="369" spans="1:14">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>1945</v>
       </c>
@@ -26609,7 +26651,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="370" spans="1:14">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>1946</v>
       </c>
@@ -26632,7 +26674,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="371" spans="1:14">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>1948</v>
       </c>
@@ -26655,7 +26697,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="372" spans="1:14">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>1949</v>
       </c>
@@ -26678,7 +26720,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="373" spans="1:14">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>1951</v>
       </c>
@@ -26701,7 +26743,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="374" spans="1:14">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>1952</v>
       </c>
@@ -26724,7 +26766,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="375" spans="1:14">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>1954</v>
       </c>
@@ -26747,7 +26789,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="376" spans="1:14">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>1955</v>
       </c>
@@ -26770,7 +26812,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="377" spans="1:14">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>1957</v>
       </c>
@@ -26793,7 +26835,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="378" spans="1:14">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>1958</v>
       </c>
@@ -26816,7 +26858,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="379" spans="1:14">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>1960</v>
       </c>
@@ -26839,7 +26881,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="380" spans="1:14">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>1961</v>
       </c>
@@ -26862,7 +26904,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="381" spans="1:14">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>1963</v>
       </c>
@@ -26885,7 +26927,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="382" spans="1:14">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>1964</v>
       </c>
@@ -26908,7 +26950,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="383" spans="1:14">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>1966</v>
       </c>
@@ -26931,7 +26973,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="384" spans="1:14">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>1967</v>
       </c>
@@ -26954,7 +26996,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="385" spans="1:14">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>1969</v>
       </c>
@@ -26977,7 +27019,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="386" spans="1:14">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>1970</v>
       </c>
@@ -27000,7 +27042,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="387" spans="1:14">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>1972</v>
       </c>
@@ -27023,7 +27065,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="388" spans="1:14">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>1973</v>
       </c>
@@ -27046,7 +27088,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="389" spans="1:14">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>1975</v>
       </c>
@@ -27069,7 +27111,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="390" spans="1:14">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>1976</v>
       </c>
@@ -27092,7 +27134,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="391" spans="1:14">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>1978</v>
       </c>
@@ -27115,7 +27157,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="392" spans="1:14">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>1979</v>
       </c>
@@ -27138,7 +27180,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="393" spans="1:14">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>1981</v>
       </c>
@@ -27161,7 +27203,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="394" spans="1:14">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>1982</v>
       </c>
@@ -27184,7 +27226,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="395" spans="1:14">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>1984</v>
       </c>
@@ -27207,7 +27249,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="396" spans="1:14">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>1985</v>
       </c>
@@ -27230,7 +27272,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="397" spans="1:14">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>1987</v>
       </c>
@@ -27253,7 +27295,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="398" spans="1:14">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>1988</v>
       </c>
@@ -27276,7 +27318,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="399" spans="1:14">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>1990</v>
       </c>
@@ -27299,7 +27341,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="400" spans="1:14">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>1991</v>
       </c>
@@ -27322,7 +27364,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="401" spans="1:14">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>1993</v>
       </c>
@@ -27345,7 +27387,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="402" spans="1:14">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>1994</v>
       </c>
@@ -27368,7 +27410,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="403" spans="1:14">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>1996</v>
       </c>
@@ -27391,7 +27433,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="404" spans="1:14">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>1997</v>
       </c>
@@ -27414,7 +27456,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="405" spans="1:14">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>1999</v>
       </c>
@@ -27437,7 +27479,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="406" spans="1:14">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>2000</v>
       </c>
@@ -27460,7 +27502,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="407" spans="1:14">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>2002</v>
       </c>
@@ -27483,7 +27525,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="408" spans="1:14">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>2003</v>
       </c>
@@ -27506,7 +27548,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="409" spans="1:14">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>2005</v>
       </c>
@@ -27529,7 +27571,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="410" spans="1:14">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>2006</v>
       </c>
@@ -27552,7 +27594,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="411" spans="1:14">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>2008</v>
       </c>
@@ -27575,7 +27617,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="412" spans="1:14">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>2009</v>
       </c>
@@ -27598,7 +27640,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="413" spans="1:14">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>2011</v>
       </c>
@@ -27621,7 +27663,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="414" spans="1:14">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>2012</v>
       </c>
@@ -27644,7 +27686,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="415" spans="1:14">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>2014</v>
       </c>
@@ -27667,7 +27709,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="416" spans="1:14">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>2015</v>
       </c>
@@ -27690,7 +27732,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="417" spans="1:14">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>2017</v>
       </c>
@@ -27713,7 +27755,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="418" spans="1:14">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>2018</v>
       </c>
@@ -27736,7 +27778,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="419" spans="1:14">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>2020</v>
       </c>
@@ -27759,7 +27801,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="420" spans="1:14">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>2021</v>
       </c>
@@ -27782,7 +27824,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="421" spans="1:14">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>2023</v>
       </c>
@@ -27805,7 +27847,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="422" spans="1:14">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>2024</v>
       </c>
@@ -27828,7 +27870,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="423" spans="1:14">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>2026</v>
       </c>
@@ -27851,7 +27893,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="424" spans="1:14">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>2027</v>
       </c>
@@ -27874,7 +27916,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="425" spans="1:14">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>2029</v>
       </c>
@@ -27897,7 +27939,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="426" spans="1:14">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>2030</v>
       </c>
@@ -27920,7 +27962,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="427" spans="1:14">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>2032</v>
       </c>
@@ -27943,7 +27985,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="428" spans="1:14">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>2033</v>
       </c>
@@ -27966,7 +28008,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="429" spans="1:14">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>2035</v>
       </c>
@@ -27989,7 +28031,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="430" spans="1:14">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>2036</v>
       </c>
@@ -28012,7 +28054,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="431" spans="1:14">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>2038</v>
       </c>
@@ -28035,7 +28077,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="432" spans="1:14">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>2039</v>
       </c>
@@ -28058,7 +28100,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="433" spans="1:14">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>2041</v>
       </c>
@@ -28081,7 +28123,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="434" spans="1:14">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>2042</v>
       </c>
@@ -28104,7 +28146,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="435" spans="1:14">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>2044</v>
       </c>
@@ -28127,7 +28169,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="436" spans="1:14">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>2045</v>
       </c>
@@ -28150,7 +28192,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="437" spans="1:14">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>2047</v>
       </c>
@@ -28173,7 +28215,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="438" spans="1:14">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>2048</v>
       </c>
@@ -28196,7 +28238,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="439" spans="1:14">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>2050</v>
       </c>
@@ -28219,7 +28261,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="440" spans="1:14">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>2051</v>
       </c>
@@ -28242,7 +28284,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="441" spans="1:14">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>2053</v>
       </c>
@@ -28265,7 +28307,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="442" spans="1:14">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>2054</v>
       </c>
@@ -28288,7 +28330,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="443" spans="1:14">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>2056</v>
       </c>
@@ -28311,7 +28353,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="444" spans="1:14">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>2057</v>
       </c>
@@ -28334,7 +28376,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="445" spans="1:14">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>2059</v>
       </c>
@@ -28357,7 +28399,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="446" spans="1:14">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>2060</v>
       </c>
@@ -28380,7 +28422,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="447" spans="1:14">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>2062</v>
       </c>
@@ -28403,7 +28445,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="448" spans="1:14">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>2063</v>
       </c>
@@ -28426,7 +28468,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="449" spans="1:14">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>2065</v>
       </c>
@@ -28449,7 +28491,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="450" spans="1:14">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>2066</v>
       </c>
@@ -28472,7 +28514,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="451" spans="1:14">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>2068</v>
       </c>
@@ -28495,7 +28537,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="452" spans="1:14">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>2069</v>
       </c>
@@ -28518,7 +28560,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="453" spans="1:14">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>2071</v>
       </c>
@@ -28541,7 +28583,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="454" spans="1:14">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>2072</v>
       </c>
@@ -28564,7 +28606,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="455" spans="1:14">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>2074</v>
       </c>
@@ -28587,7 +28629,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="456" spans="1:14">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>2075</v>
       </c>
@@ -28610,7 +28652,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="457" spans="1:14">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>2077</v>
       </c>
@@ -28633,7 +28675,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="458" spans="1:14">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>2078</v>
       </c>
@@ -28656,7 +28698,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="459" spans="1:14">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>2080</v>
       </c>
@@ -28679,7 +28721,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="460" spans="1:14">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>2081</v>
       </c>
@@ -28702,7 +28744,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="461" spans="1:14">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>2083</v>
       </c>
@@ -28725,7 +28767,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="462" spans="1:14">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>2084</v>
       </c>
@@ -28748,7 +28790,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="463" spans="1:14">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>2086</v>
       </c>
@@ -28771,7 +28813,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="464" spans="1:14">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>2087</v>
       </c>
@@ -28794,7 +28836,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="465" spans="1:14">
+    <row r="465" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>2089</v>
       </c>
@@ -28817,7 +28859,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="466" spans="1:14">
+    <row r="466" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>2090</v>
       </c>
@@ -28840,7 +28882,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="467" spans="1:14">
+    <row r="467" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>2092</v>
       </c>
@@ -28863,7 +28905,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="468" spans="1:14">
+    <row r="468" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>2093</v>
       </c>
@@ -28886,7 +28928,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="469" spans="1:14">
+    <row r="469" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>2095</v>
       </c>
@@ -28909,7 +28951,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="470" spans="1:14">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>2096</v>
       </c>
@@ -28932,7 +28974,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="471" spans="1:14">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>2098</v>
       </c>
@@ -28955,7 +28997,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="472" spans="1:14">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>2099</v>
       </c>
@@ -28978,7 +29020,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="473" spans="1:14">
+    <row r="473" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>2101</v>
       </c>
@@ -29001,7 +29043,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="474" spans="1:14">
+    <row r="474" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>2102</v>
       </c>
@@ -29024,7 +29066,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="475" spans="1:14">
+    <row r="475" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>2104</v>
       </c>
@@ -29047,7 +29089,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="476" spans="1:14">
+    <row r="476" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>2105</v>
       </c>
@@ -29070,7 +29112,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="477" spans="1:14">
+    <row r="477" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>2107</v>
       </c>
@@ -29093,7 +29135,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="478" spans="1:14">
+    <row r="478" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>2108</v>
       </c>
@@ -29116,7 +29158,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="479" spans="1:14">
+    <row r="479" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>2110</v>
       </c>
@@ -29139,7 +29181,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="480" spans="1:14">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>2111</v>
       </c>
@@ -29162,7 +29204,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="481" spans="1:14">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>2113</v>
       </c>
@@ -29185,7 +29227,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="482" spans="1:14">
+    <row r="482" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>2114</v>
       </c>
@@ -29208,7 +29250,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="483" spans="1:14">
+    <row r="483" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>2116</v>
       </c>
@@ -29231,7 +29273,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="484" spans="1:14">
+    <row r="484" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>2117</v>
       </c>
@@ -29254,7 +29296,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="485" spans="1:14">
+    <row r="485" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>2119</v>
       </c>
@@ -29277,7 +29319,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="486" spans="1:14">
+    <row r="486" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>2120</v>
       </c>
@@ -29300,7 +29342,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="487" spans="1:14">
+    <row r="487" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>2122</v>
       </c>
@@ -29323,7 +29365,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="488" spans="1:14">
+    <row r="488" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>2123</v>
       </c>
@@ -29346,7 +29388,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="489" spans="1:14">
+    <row r="489" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>2125</v>
       </c>
@@ -29369,7 +29411,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="490" spans="1:14">
+    <row r="490" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>2126</v>
       </c>
@@ -29392,7 +29434,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="491" spans="1:14">
+    <row r="491" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>2128</v>
       </c>
@@ -29415,7 +29457,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="492" spans="1:14">
+    <row r="492" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>2129</v>
       </c>
@@ -29438,7 +29480,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="493" spans="1:14">
+    <row r="493" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>2131</v>
       </c>
@@ -29461,7 +29503,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="494" spans="1:14">
+    <row r="494" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>2132</v>
       </c>
@@ -29484,7 +29526,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="495" spans="1:14">
+    <row r="495" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>2134</v>
       </c>
@@ -29507,7 +29549,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="496" spans="1:14">
+    <row r="496" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>2135</v>
       </c>
@@ -29530,7 +29572,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="497" spans="1:14">
+    <row r="497" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>2137</v>
       </c>
@@ -29553,7 +29595,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="498" spans="1:14">
+    <row r="498" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>2138</v>
       </c>
@@ -29576,7 +29618,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="499" spans="1:14">
+    <row r="499" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>2140</v>
       </c>
@@ -29599,7 +29641,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="500" spans="1:14">
+    <row r="500" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>2141</v>
       </c>
@@ -29622,7 +29664,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="501" spans="1:14">
+    <row r="501" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>2143</v>
       </c>
@@ -29645,7 +29687,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="502" spans="1:14">
+    <row r="502" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>2144</v>
       </c>
@@ -29668,7 +29710,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="503" spans="1:14">
+    <row r="503" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>2146</v>
       </c>
@@ -29691,7 +29733,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="504" spans="1:14">
+    <row r="504" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>2147</v>
       </c>
@@ -29714,7 +29756,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="505" spans="1:14">
+    <row r="505" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>2149</v>
       </c>
@@ -29737,7 +29779,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="506" spans="1:14">
+    <row r="506" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>2150</v>
       </c>
@@ -29760,7 +29802,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="507" spans="1:14">
+    <row r="507" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>2152</v>
       </c>
@@ -29783,7 +29825,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="508" spans="1:14">
+    <row r="508" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>2153</v>
       </c>
@@ -29806,7 +29848,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="509" spans="1:14">
+    <row r="509" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>2155</v>
       </c>
@@ -29829,7 +29871,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="510" spans="1:14">
+    <row r="510" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>2156</v>
       </c>
@@ -29852,7 +29894,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="511" spans="1:14">
+    <row r="511" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>2158</v>
       </c>
@@ -29875,7 +29917,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="512" spans="1:14">
+    <row r="512" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>2159</v>
       </c>
@@ -29898,7 +29940,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="513" spans="1:14">
+    <row r="513" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>2161</v>
       </c>
@@ -29921,7 +29963,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="514" spans="1:14">
+    <row r="514" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>2162</v>
       </c>
@@ -29944,7 +29986,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="515" spans="1:14">
+    <row r="515" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>2164</v>
       </c>
@@ -29967,7 +30009,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="516" spans="1:14">
+    <row r="516" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>2165</v>
       </c>
@@ -29990,7 +30032,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="517" spans="1:14">
+    <row r="517" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>2167</v>
       </c>
@@ -30013,7 +30055,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="518" spans="1:14">
+    <row r="518" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>2168</v>
       </c>
@@ -30036,7 +30078,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="519" spans="1:14">
+    <row r="519" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>2170</v>
       </c>
@@ -30059,7 +30101,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="520" spans="1:14">
+    <row r="520" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>2171</v>
       </c>
@@ -30082,7 +30124,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="521" spans="1:14">
+    <row r="521" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>2173</v>
       </c>
@@ -30105,7 +30147,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="522" spans="1:14">
+    <row r="522" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>2174</v>
       </c>
@@ -30128,7 +30170,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="523" spans="1:14">
+    <row r="523" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>2176</v>
       </c>
@@ -30151,7 +30193,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="524" spans="1:14">
+    <row r="524" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>2177</v>
       </c>
@@ -30174,7 +30216,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="525" spans="1:14">
+    <row r="525" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>2179</v>
       </c>
@@ -30197,7 +30239,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="526" spans="1:14">
+    <row r="526" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>2180</v>
       </c>
@@ -30220,7 +30262,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="527" spans="1:14">
+    <row r="527" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>2182</v>
       </c>
@@ -30243,7 +30285,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="528" spans="1:14">
+    <row r="528" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>2183</v>
       </c>
@@ -30266,7 +30308,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="529" spans="1:14">
+    <row r="529" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>2185</v>
       </c>
@@ -30289,7 +30331,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="530" spans="1:14">
+    <row r="530" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>2186</v>
       </c>
@@ -30312,7 +30354,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="531" spans="1:14">
+    <row r="531" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>2188</v>
       </c>
@@ -30335,7 +30377,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="532" spans="1:14">
+    <row r="532" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>2189</v>
       </c>
@@ -30358,7 +30400,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="533" spans="1:14">
+    <row r="533" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>2191</v>
       </c>
@@ -30381,7 +30423,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="534" spans="1:14">
+    <row r="534" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>2192</v>
       </c>
@@ -30404,7 +30446,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="535" spans="1:14">
+    <row r="535" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>2194</v>
       </c>
@@ -30427,7 +30469,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="536" spans="1:14">
+    <row r="536" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>2195</v>
       </c>
@@ -30450,7 +30492,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="537" spans="1:14">
+    <row r="537" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>2197</v>
       </c>
@@ -30473,7 +30515,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="538" spans="1:14">
+    <row r="538" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>2198</v>
       </c>
@@ -30496,7 +30538,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="539" spans="1:14">
+    <row r="539" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>2200</v>
       </c>
@@ -30519,7 +30561,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="540" spans="1:14">
+    <row r="540" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>2201</v>
       </c>
@@ -30542,7 +30584,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="541" spans="1:14">
+    <row r="541" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>2203</v>
       </c>
@@ -30565,7 +30607,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="542" spans="1:14">
+    <row r="542" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>2204</v>
       </c>
@@ -30588,7 +30630,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="543" spans="1:14">
+    <row r="543" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>2206</v>
       </c>
@@ -30611,7 +30653,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="544" spans="1:14">
+    <row r="544" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>2207</v>
       </c>
@@ -30634,7 +30676,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="545" spans="1:14">
+    <row r="545" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>2209</v>
       </c>
@@ -30657,7 +30699,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="546" spans="1:14">
+    <row r="546" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>2210</v>
       </c>
@@ -30680,7 +30722,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="547" spans="1:14">
+    <row r="547" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>2212</v>
       </c>
@@ -30703,7 +30745,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="548" spans="1:14">
+    <row r="548" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>2213</v>
       </c>
@@ -30726,7 +30768,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="549" spans="1:14">
+    <row r="549" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>2215</v>
       </c>
@@ -30749,7 +30791,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="550" spans="1:14">
+    <row r="550" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>2216</v>
       </c>
@@ -30772,7 +30814,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="551" spans="1:14">
+    <row r="551" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>2218</v>
       </c>
@@ -30795,7 +30837,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="552" spans="1:14">
+    <row r="552" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>2219</v>
       </c>
@@ -30818,7 +30860,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="553" spans="1:14">
+    <row r="553" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>2221</v>
       </c>
@@ -30841,7 +30883,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="554" spans="1:14">
+    <row r="554" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>2222</v>
       </c>
@@ -30864,7 +30906,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="555" spans="1:14">
+    <row r="555" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>2224</v>
       </c>
@@ -30887,7 +30929,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="556" spans="1:14">
+    <row r="556" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>2225</v>
       </c>
@@ -30910,7 +30952,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="557" spans="1:14">
+    <row r="557" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>2227</v>
       </c>
@@ -30933,7 +30975,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="558" spans="1:14">
+    <row r="558" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>2228</v>
       </c>
@@ -30956,7 +30998,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="559" spans="1:14">
+    <row r="559" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>2230</v>
       </c>
@@ -30979,7 +31021,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="560" spans="1:14">
+    <row r="560" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>2231</v>
       </c>
@@ -31002,7 +31044,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="561" spans="1:14">
+    <row r="561" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>2233</v>
       </c>
@@ -31025,7 +31067,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="562" spans="1:14">
+    <row r="562" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>2234</v>
       </c>
@@ -31048,7 +31090,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="563" spans="1:14">
+    <row r="563" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>2236</v>
       </c>
@@ -31071,7 +31113,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="564" spans="1:14">
+    <row r="564" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>2237</v>
       </c>
@@ -31094,7 +31136,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="565" spans="1:14">
+    <row r="565" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>2239</v>
       </c>
@@ -31117,7 +31159,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="566" spans="1:14">
+    <row r="566" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>2240</v>
       </c>
@@ -31140,7 +31182,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="567" spans="1:14">
+    <row r="567" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>2242</v>
       </c>
@@ -31163,7 +31205,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="568" spans="1:14">
+    <row r="568" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>2243</v>
       </c>
@@ -31186,7 +31228,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="569" spans="1:14">
+    <row r="569" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>2245</v>
       </c>
@@ -31209,7 +31251,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="570" spans="1:14">
+    <row r="570" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>2246</v>
       </c>
@@ -31232,7 +31274,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="571" spans="1:14">
+    <row r="571" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>2248</v>
       </c>
@@ -31255,7 +31297,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="572" spans="1:14">
+    <row r="572" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>2249</v>
       </c>
@@ -31278,7 +31320,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="573" spans="1:14">
+    <row r="573" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>2251</v>
       </c>
@@ -31301,7 +31343,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="574" spans="1:14">
+    <row r="574" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>2252</v>
       </c>
@@ -31324,7 +31366,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="575" spans="1:14">
+    <row r="575" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>2254</v>
       </c>
@@ -31347,7 +31389,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="576" spans="1:14">
+    <row r="576" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>2255</v>
       </c>
@@ -31370,7 +31412,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="577" spans="1:14">
+    <row r="577" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>2257</v>
       </c>
@@ -31393,7 +31435,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="578" spans="1:14">
+    <row r="578" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>2258</v>
       </c>
@@ -31416,7 +31458,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="579" spans="1:14">
+    <row r="579" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>2260</v>
       </c>
@@ -31439,7 +31481,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="580" spans="1:14">
+    <row r="580" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>2261</v>
       </c>
@@ -31462,7 +31504,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="581" spans="1:14">
+    <row r="581" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>2263</v>
       </c>
@@ -31485,7 +31527,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="582" spans="1:14">
+    <row r="582" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>2264</v>
       </c>
@@ -31508,7 +31550,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="583" spans="1:14">
+    <row r="583" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>2266</v>
       </c>
@@ -31531,7 +31573,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="584" spans="1:14">
+    <row r="584" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>2267</v>
       </c>
@@ -31554,7 +31596,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="585" spans="1:14">
+    <row r="585" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>2269</v>
       </c>
@@ -31577,7 +31619,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="586" spans="1:14">
+    <row r="586" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>2270</v>
       </c>
@@ -31600,7 +31642,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="587" spans="1:14">
+    <row r="587" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>2272</v>
       </c>
@@ -31623,7 +31665,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="588" spans="1:14">
+    <row r="588" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>2273</v>
       </c>
@@ -31646,7 +31688,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="589" spans="1:14">
+    <row r="589" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>2275</v>
       </c>
@@ -31669,7 +31711,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="590" spans="1:14">
+    <row r="590" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>2276</v>
       </c>
@@ -31692,7 +31734,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="591" spans="1:14">
+    <row r="591" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>2278</v>
       </c>
@@ -31715,7 +31757,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="592" spans="1:14">
+    <row r="592" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>2279</v>
       </c>
@@ -31738,7 +31780,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="593" spans="1:14">
+    <row r="593" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>2281</v>
       </c>
@@ -31761,7 +31803,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="594" spans="1:14">
+    <row r="594" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>2282</v>
       </c>
@@ -31784,7 +31826,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="595" spans="1:14">
+    <row r="595" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>2284</v>
       </c>
@@ -31807,7 +31849,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="596" spans="1:14">
+    <row r="596" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>2285</v>
       </c>
@@ -31830,7 +31872,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="597" spans="1:14">
+    <row r="597" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>2287</v>
       </c>
@@ -31853,7 +31895,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="598" spans="1:14">
+    <row r="598" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>2288</v>
       </c>
@@ -31876,7 +31918,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="599" spans="1:14">
+    <row r="599" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>2290</v>
       </c>
@@ -31899,7 +31941,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="600" spans="1:14">
+    <row r="600" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>2291</v>
       </c>
@@ -31922,7 +31964,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="601" spans="1:14">
+    <row r="601" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>2293</v>
       </c>
@@ -31945,7 +31987,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="602" spans="1:14">
+    <row r="602" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>2294</v>
       </c>
@@ -31968,7 +32010,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="603" spans="1:14">
+    <row r="603" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>2296</v>
       </c>
@@ -31991,7 +32033,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="604" spans="1:14">
+    <row r="604" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>2297</v>
       </c>
@@ -32014,7 +32056,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="605" spans="1:14">
+    <row r="605" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>2299</v>
       </c>
@@ -32037,7 +32079,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="606" spans="1:14">
+    <row r="606" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>2300</v>
       </c>
@@ -32060,7 +32102,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="607" spans="1:14">
+    <row r="607" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>2302</v>
       </c>
@@ -32083,7 +32125,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="608" spans="1:14">
+    <row r="608" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>2303</v>
       </c>
@@ -32106,7 +32148,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="609" spans="1:14">
+    <row r="609" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>2305</v>
       </c>
@@ -32129,7 +32171,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="610" spans="1:14">
+    <row r="610" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>2306</v>
       </c>
@@ -32152,7 +32194,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="611" spans="1:14">
+    <row r="611" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>2308</v>
       </c>
@@ -32175,7 +32217,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="612" spans="1:14">
+    <row r="612" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>2309</v>
       </c>
@@ -32198,7 +32240,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="613" spans="1:14">
+    <row r="613" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>2311</v>
       </c>
@@ -32221,7 +32263,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="614" spans="1:14">
+    <row r="614" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>2312</v>
       </c>
@@ -32244,7 +32286,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="615" spans="1:14">
+    <row r="615" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>2314</v>
       </c>
@@ -32267,7 +32309,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="616" spans="1:14">
+    <row r="616" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>2315</v>
       </c>
@@ -32290,7 +32332,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="617" spans="1:14">
+    <row r="617" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>2317</v>
       </c>
@@ -32313,7 +32355,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="618" spans="1:14">
+    <row r="618" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>2318</v>
       </c>
@@ -32336,7 +32378,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="619" spans="1:14">
+    <row r="619" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>2320</v>
       </c>
@@ -32365,34 +32407,36 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" customWidth="1"/>
-    <col min="3" max="3" width="399.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="70.7109375" customWidth="1"/>
-    <col min="8" max="8" width="59.7109375" customWidth="1"/>
-    <col min="9" max="9" width="141.7109375" customWidth="1"/>
-    <col min="10" max="10" width="59.7109375" customWidth="1"/>
-    <col min="11" max="11" width="76.7109375" customWidth="1"/>
-    <col min="12" max="12" width="91.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="62.7109375" customWidth="1"/>
-    <col min="16" max="16" width="50.7109375" customWidth="1"/>
-    <col min="17" max="17" width="56.7109375" customWidth="1"/>
-    <col min="18" max="18" width="99.7109375" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" customWidth="1"/>
+    <col min="3" max="3" width="399.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="70.6640625" customWidth="1"/>
+    <col min="8" max="8" width="59.6640625" customWidth="1"/>
+    <col min="9" max="9" width="141.6640625" customWidth="1"/>
+    <col min="10" max="10" width="59.6640625" customWidth="1"/>
+    <col min="11" max="11" width="76.6640625" customWidth="1"/>
+    <col min="12" max="12" width="91.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="62.6640625" customWidth="1"/>
+    <col min="16" max="16" width="50.6640625" customWidth="1"/>
+    <col min="17" max="17" width="56.6640625" customWidth="1"/>
+    <col min="18" max="18" width="99.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1364</v>
       </c>
@@ -32448,7 +32492,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -32504,7 +32548,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -32554,7 +32598,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1395</v>
       </c>
@@ -32610,12 +32654,12 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1400</v>
       </c>
@@ -32624,6 +32668,9 @@
       </c>
       <c r="G6" t="s">
         <v>2367</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2476</v>
       </c>
     </row>
   </sheetData>
@@ -32632,76 +32679,73 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:BH9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="62.7109375" customWidth="1"/>
-    <col min="11" max="11" width="58.7109375" customWidth="1"/>
-    <col min="12" max="12" width="141.7109375" customWidth="1"/>
-    <col min="13" max="13" width="69.7109375" customWidth="1"/>
-    <col min="14" max="14" width="58.7109375" customWidth="1"/>
-    <col min="15" max="15" width="141.7109375" customWidth="1"/>
-    <col min="16" max="16" width="96.7109375" customWidth="1"/>
-    <col min="17" max="17" width="58.7109375" customWidth="1"/>
-    <col min="18" max="18" width="141.7109375" customWidth="1"/>
-    <col min="19" max="19" width="81.7109375" customWidth="1"/>
-    <col min="20" max="20" width="58.7109375" customWidth="1"/>
-    <col min="21" max="21" width="141.7109375" customWidth="1"/>
-    <col min="22" max="22" width="57.7109375" customWidth="1"/>
-    <col min="23" max="23" width="76.7109375" customWidth="1"/>
-    <col min="24" max="24" width="80.7109375" customWidth="1"/>
-    <col min="25" max="25" width="62.7109375" customWidth="1"/>
-    <col min="26" max="26" width="121.7109375" customWidth="1"/>
-    <col min="27" max="27" width="97.7109375" customWidth="1"/>
-    <col min="28" max="28" width="86.7109375" customWidth="1"/>
-    <col min="29" max="29" width="99.7109375" customWidth="1"/>
-    <col min="30" max="30" width="101.7109375" customWidth="1"/>
-    <col min="31" max="31" width="69.7109375" customWidth="1"/>
-    <col min="32" max="32" width="69.7109375" customWidth="1"/>
-    <col min="33" max="33" width="71.7109375" customWidth="1"/>
-    <col min="34" max="34" width="141.7109375" customWidth="1"/>
-    <col min="35" max="35" width="158.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="90.7109375" customWidth="1"/>
-    <col min="38" max="38" width="57.7109375" customWidth="1"/>
-    <col min="39" max="39" width="55.7109375" customWidth="1"/>
-    <col min="40" max="40" width="53.7109375" customWidth="1"/>
-    <col min="41" max="41" width="111.7109375" customWidth="1"/>
-    <col min="42" max="42" width="91.7109375" customWidth="1"/>
-    <col min="43" max="43" width="72.7109375" customWidth="1"/>
-    <col min="44" max="44" width="71.7109375" customWidth="1"/>
-    <col min="45" max="45" width="32.7109375" customWidth="1"/>
-    <col min="46" max="46" width="67.7109375" customWidth="1"/>
-    <col min="47" max="47" width="41.7109375" customWidth="1"/>
-    <col min="48" max="48" width="84.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="104.7109375" customWidth="1"/>
-    <col min="52" max="52" width="88.7109375" customWidth="1"/>
-    <col min="53" max="53" width="69.7109375" customWidth="1"/>
-    <col min="54" max="54" width="58.7109375" customWidth="1"/>
-    <col min="55" max="55" width="141.7109375" customWidth="1"/>
-    <col min="56" max="56" width="67.7109375" customWidth="1"/>
-    <col min="57" max="57" width="58.7109375" customWidth="1"/>
-    <col min="58" max="58" width="141.7109375" customWidth="1"/>
-    <col min="59" max="59" width="79.7109375" customWidth="1"/>
-    <col min="60" max="60" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="62.6640625" customWidth="1"/>
+    <col min="11" max="11" width="58.6640625" customWidth="1"/>
+    <col min="12" max="12" width="141.6640625" customWidth="1"/>
+    <col min="13" max="13" width="69.6640625" customWidth="1"/>
+    <col min="14" max="14" width="58.6640625" customWidth="1"/>
+    <col min="15" max="15" width="141.6640625" customWidth="1"/>
+    <col min="16" max="16" width="96.6640625" customWidth="1"/>
+    <col min="17" max="17" width="58.6640625" customWidth="1"/>
+    <col min="18" max="18" width="141.6640625" customWidth="1"/>
+    <col min="19" max="19" width="81.6640625" customWidth="1"/>
+    <col min="20" max="20" width="58.6640625" customWidth="1"/>
+    <col min="21" max="21" width="141.6640625" customWidth="1"/>
+    <col min="22" max="22" width="57.6640625" customWidth="1"/>
+    <col min="23" max="23" width="76.6640625" customWidth="1"/>
+    <col min="24" max="24" width="80.6640625" customWidth="1"/>
+    <col min="25" max="25" width="62.6640625" customWidth="1"/>
+    <col min="26" max="26" width="121.6640625" customWidth="1"/>
+    <col min="27" max="27" width="97.6640625" customWidth="1"/>
+    <col min="28" max="28" width="86.6640625" customWidth="1"/>
+    <col min="29" max="29" width="99.6640625" customWidth="1"/>
+    <col min="30" max="30" width="101.6640625" customWidth="1"/>
+    <col min="31" max="32" width="69.6640625" customWidth="1"/>
+    <col min="33" max="33" width="71.6640625" customWidth="1"/>
+    <col min="34" max="34" width="141.6640625" customWidth="1"/>
+    <col min="35" max="35" width="158.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="90.6640625" customWidth="1"/>
+    <col min="38" max="38" width="57.6640625" customWidth="1"/>
+    <col min="39" max="39" width="55.6640625" customWidth="1"/>
+    <col min="40" max="40" width="53.6640625" customWidth="1"/>
+    <col min="41" max="41" width="111.6640625" customWidth="1"/>
+    <col min="42" max="42" width="91.6640625" customWidth="1"/>
+    <col min="43" max="43" width="72.6640625" customWidth="1"/>
+    <col min="44" max="44" width="71.6640625" customWidth="1"/>
+    <col min="45" max="45" width="32.6640625" customWidth="1"/>
+    <col min="46" max="46" width="67.6640625" customWidth="1"/>
+    <col min="47" max="47" width="41.6640625" customWidth="1"/>
+    <col min="48" max="48" width="84.6640625" customWidth="1"/>
+    <col min="49" max="51" width="104.6640625" customWidth="1"/>
+    <col min="52" max="52" width="88.6640625" customWidth="1"/>
+    <col min="53" max="53" width="69.6640625" customWidth="1"/>
+    <col min="54" max="54" width="58.6640625" customWidth="1"/>
+    <col min="55" max="55" width="141.6640625" customWidth="1"/>
+    <col min="56" max="56" width="67.6640625" customWidth="1"/>
+    <col min="57" max="57" width="58.6640625" customWidth="1"/>
+    <col min="58" max="58" width="141.6640625" customWidth="1"/>
+    <col min="59" max="59" width="79.6640625" customWidth="1"/>
+    <col min="60" max="60" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -32883,7 +32927,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -33065,7 +33109,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:60">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -33226,7 +33270,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:60">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>188</v>
       </c>
@@ -33408,12 +33452,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>213</v>
       </c>
@@ -33433,7 +33477,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>399</v>
       </c>
@@ -33453,7 +33497,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>651</v>
       </c>
@@ -33473,7 +33517,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>760</v>
       </c>
